--- a/archivos/2. Procesamiento de la información/Base Central.xlsx
+++ b/archivos/2. Procesamiento de la información/Base Central.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandro\Mi unidad\Investigaciones en curso\2022 Tweeter y COVID-19\1. Proyecto - Redes y Pandemia\3. Análisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upperu-my.sharepoint.com/personal/ss_sotelog_alum_up_edu_pe/Documents/(TRABAJO) Apoyo Sandro Macassi/proyecto1/archivos/2. Procesamiento de la información/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2569E19-F415-4F59-AC5B-8DAC5D058A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A2569E19-F415-4F59-AC5B-8DAC5D058A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2A38F12-B007-4720-937B-1E1FD4D47FAA}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" activeTab="4" xr2:uid="{CBE6B108-D0AF-4E21-91D6-1BB5B89965A3}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CBE6B108-D0AF-4E21-91D6-1BB5B89965A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Base General" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3460,24 +3463,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3546,6 +3531,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3881,16 +3884,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>380999</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>728383</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>102533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358029</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3905,8 +3908,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4762499"/>
-          <a:ext cx="2924175" cy="685801"/>
+          <a:off x="3115236" y="4181474"/>
+          <a:ext cx="3025028" cy="793938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4560,32 +4563,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6B820B-6780-4FD2-9624-9F1753AB874F}">
   <dimension ref="A1:AN128"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="11.41796875" style="5"/>
-    <col min="5" max="5" width="12.15625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.15625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.41796875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.453125" style="5"/>
+    <col min="5" max="5" width="12.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.453125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11.41796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.68359375" style="1" customWidth="1"/>
-    <col min="13" max="18" width="11.41796875" style="1"/>
-    <col min="19" max="19" width="12.83984375" style="1" customWidth="1"/>
-    <col min="20" max="21" width="11.41796875" style="1"/>
-    <col min="22" max="22" width="14.578125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.41796875" style="1"/>
-    <col min="24" max="25" width="12.15625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.26171875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.68359375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="11.41796875" style="1"/>
-    <col min="29" max="29" width="11.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="40" width="11.41796875" style="1"/>
+    <col min="10" max="11" width="11.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" style="1" customWidth="1"/>
+    <col min="13" max="18" width="11.453125" style="1"/>
+    <col min="19" max="19" width="12.81640625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="11.453125" style="1"/>
+    <col min="22" max="22" width="14.54296875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" style="1"/>
+    <col min="24" max="25" width="12.1796875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.26953125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.6328125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11.453125" style="1"/>
+    <col min="29" max="29" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="40" width="11.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:40">
@@ -4699,7 +4702,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="22"/>
     </row>
-    <row r="3" spans="5:40" ht="28.8">
+    <row r="3" spans="5:40" ht="29">
       <c r="E3" s="7" t="s">
         <v>129</v>
       </c>
@@ -4775,7 +4778,7 @@
       <c r="AB3" s="22"/>
       <c r="AC3" s="22"/>
     </row>
-    <row r="4" spans="5:40" ht="28.8">
+    <row r="4" spans="5:40" ht="29">
       <c r="E4" s="7" t="s">
         <v>63</v>
       </c>
@@ -4851,7 +4854,7 @@
       <c r="AB4" s="22"/>
       <c r="AC4" s="22"/>
     </row>
-    <row r="5" spans="5:40" ht="28.8">
+    <row r="5" spans="5:40" ht="29">
       <c r="E5" s="7" t="s">
         <v>140</v>
       </c>
@@ -4925,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="5:40" ht="28.8">
+    <row r="6" spans="5:40" ht="43.5">
       <c r="E6" s="7" t="s">
         <v>57</v>
       </c>
@@ -4999,7 +5002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="5:40" ht="28.8">
+    <row r="7" spans="5:40" ht="29">
       <c r="E7" s="7" t="s">
         <v>42</v>
       </c>
@@ -5075,7 +5078,7 @@
       <c r="AB7" s="22"/>
       <c r="AC7" s="22"/>
     </row>
-    <row r="8" spans="5:40" ht="28.8">
+    <row r="8" spans="5:40" ht="29">
       <c r="E8" s="7" t="s">
         <v>121</v>
       </c>
@@ -5149,7 +5152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="5:40" ht="28.8">
+    <row r="9" spans="5:40" ht="29">
       <c r="E9" s="7" t="s">
         <v>114</v>
       </c>
@@ -5225,7 +5228,7 @@
       <c r="AB9" s="22"/>
       <c r="AC9" s="22"/>
     </row>
-    <row r="10" spans="5:40" ht="28.8">
+    <row r="10" spans="5:40" ht="29">
       <c r="E10" s="7" t="s">
         <v>61</v>
       </c>
@@ -5301,7 +5304,7 @@
       <c r="AB10" s="22"/>
       <c r="AC10" s="22"/>
     </row>
-    <row r="11" spans="5:40" ht="28.8">
+    <row r="11" spans="5:40" ht="29">
       <c r="E11" s="7" t="s">
         <v>61</v>
       </c>
@@ -5377,7 +5380,7 @@
       <c r="AB11" s="22"/>
       <c r="AC11" s="22"/>
     </row>
-    <row r="12" spans="5:40" ht="28.8">
+    <row r="12" spans="5:40" ht="29">
       <c r="E12" s="7" t="s">
         <v>74</v>
       </c>
@@ -5453,7 +5456,7 @@
       <c r="AB12" s="22"/>
       <c r="AC12" s="22"/>
     </row>
-    <row r="13" spans="5:40" ht="28.8">
+    <row r="13" spans="5:40" ht="29">
       <c r="E13" s="7" t="s">
         <v>75</v>
       </c>
@@ -5529,7 +5532,7 @@
       <c r="AB13" s="22"/>
       <c r="AC13" s="22"/>
     </row>
-    <row r="14" spans="5:40" ht="28.8">
+    <row r="14" spans="5:40" ht="29">
       <c r="E14" s="7" t="s">
         <v>50</v>
       </c>
@@ -5603,7 +5606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="5:40" ht="28.8">
+    <row r="15" spans="5:40" ht="29">
       <c r="E15" s="7" t="s">
         <v>55</v>
       </c>
@@ -5677,7 +5680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="5:40" ht="28.8">
+    <row r="16" spans="5:40" ht="29">
       <c r="E16" s="7" t="s">
         <v>90</v>
       </c>
@@ -5753,7 +5756,7 @@
       <c r="AB16" s="22"/>
       <c r="AC16" s="22"/>
     </row>
-    <row r="17" spans="5:29" ht="28.8">
+    <row r="17" spans="5:29" ht="29">
       <c r="E17" s="7" t="s">
         <v>6</v>
       </c>
@@ -5829,7 +5832,7 @@
       <c r="AB17" s="22"/>
       <c r="AC17" s="22"/>
     </row>
-    <row r="18" spans="5:29" ht="28.8">
+    <row r="18" spans="5:29" ht="29">
       <c r="E18" s="7" t="s">
         <v>44</v>
       </c>
@@ -5903,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="5:29" ht="28.8">
+    <row r="19" spans="5:29" ht="29">
       <c r="E19" s="7" t="s">
         <v>94</v>
       </c>
@@ -5977,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="5:29" ht="43.2">
+    <row r="20" spans="5:29" ht="43.5">
       <c r="E20" s="7" t="s">
         <v>137</v>
       </c>
@@ -6053,7 +6056,7 @@
       <c r="AB20" s="22"/>
       <c r="AC20" s="22"/>
     </row>
-    <row r="21" spans="5:29" ht="28.8">
+    <row r="21" spans="5:29" ht="29">
       <c r="E21" s="7" t="s">
         <v>32</v>
       </c>
@@ -6129,7 +6132,7 @@
       <c r="AB21" s="22"/>
       <c r="AC21" s="22"/>
     </row>
-    <row r="22" spans="5:29" ht="28.8">
+    <row r="22" spans="5:29" ht="29">
       <c r="E22" s="7" t="s">
         <v>40</v>
       </c>
@@ -6205,7 +6208,7 @@
       <c r="AB22" s="22"/>
       <c r="AC22" s="22"/>
     </row>
-    <row r="23" spans="5:29" ht="28.8">
+    <row r="23" spans="5:29" ht="29">
       <c r="E23" s="7" t="s">
         <v>67</v>
       </c>
@@ -6281,7 +6284,7 @@
       <c r="AB23" s="22"/>
       <c r="AC23" s="22"/>
     </row>
-    <row r="24" spans="5:29" ht="28.8">
+    <row r="24" spans="5:29" ht="29">
       <c r="E24" s="7" t="s">
         <v>124</v>
       </c>
@@ -6357,7 +6360,7 @@
       <c r="AB24" s="22"/>
       <c r="AC24" s="22"/>
     </row>
-    <row r="25" spans="5:29" ht="28.8">
+    <row r="25" spans="5:29" ht="29">
       <c r="E25" s="7" t="s">
         <v>86</v>
       </c>
@@ -6433,7 +6436,7 @@
       <c r="AB25" s="22"/>
       <c r="AC25" s="22"/>
     </row>
-    <row r="26" spans="5:29" ht="28.8">
+    <row r="26" spans="5:29" ht="29">
       <c r="E26" s="7" t="s">
         <v>24</v>
       </c>
@@ -6509,7 +6512,7 @@
       <c r="AB26" s="22"/>
       <c r="AC26" s="22"/>
     </row>
-    <row r="27" spans="5:29" ht="28.8">
+    <row r="27" spans="5:29" ht="29">
       <c r="E27" s="7" t="s">
         <v>24</v>
       </c>
@@ -6585,7 +6588,7 @@
       <c r="AB27" s="22"/>
       <c r="AC27" s="22"/>
     </row>
-    <row r="28" spans="5:29" ht="28.8">
+    <row r="28" spans="5:29" ht="29">
       <c r="E28" s="7" t="s">
         <v>30</v>
       </c>
@@ -6661,7 +6664,7 @@
       <c r="AB28" s="22"/>
       <c r="AC28" s="22"/>
     </row>
-    <row r="29" spans="5:29" ht="28.8">
+    <row r="29" spans="5:29" ht="29">
       <c r="E29" s="7" t="s">
         <v>82</v>
       </c>
@@ -6735,7 +6738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="5:29" ht="28.8">
+    <row r="30" spans="5:29" ht="29">
       <c r="E30" s="7" t="s">
         <v>65</v>
       </c>
@@ -6811,7 +6814,7 @@
       <c r="AB30" s="22"/>
       <c r="AC30" s="22"/>
     </row>
-    <row r="31" spans="5:29" ht="28.8">
+    <row r="31" spans="5:29" ht="29">
       <c r="E31" s="7" t="s">
         <v>68</v>
       </c>
@@ -6887,7 +6890,7 @@
       <c r="AB31" s="22"/>
       <c r="AC31" s="22"/>
     </row>
-    <row r="32" spans="5:29" ht="28.8">
+    <row r="32" spans="5:29" ht="29">
       <c r="E32" s="7" t="s">
         <v>70</v>
       </c>
@@ -6963,7 +6966,7 @@
       <c r="AB32" s="22"/>
       <c r="AC32" s="22"/>
     </row>
-    <row r="33" spans="5:40" ht="28.8">
+    <row r="33" spans="5:40" ht="29">
       <c r="E33" s="7" t="s">
         <v>72</v>
       </c>
@@ -7037,7 +7040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="5:40" ht="28.8">
+    <row r="34" spans="5:40" ht="29">
       <c r="E34" s="7" t="s">
         <v>91</v>
       </c>
@@ -7111,7 +7114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="5:40" ht="28.8">
+    <row r="35" spans="5:40" ht="29">
       <c r="E35" s="7" t="s">
         <v>95</v>
       </c>
@@ -7187,7 +7190,7 @@
       <c r="AB35" s="22"/>
       <c r="AC35" s="22"/>
     </row>
-    <row r="36" spans="5:40" ht="28.8">
+    <row r="36" spans="5:40" ht="29">
       <c r="E36" s="7" t="s">
         <v>92</v>
       </c>
@@ -7263,7 +7266,7 @@
       <c r="AB36" s="22"/>
       <c r="AC36" s="22"/>
     </row>
-    <row r="37" spans="5:40" ht="28.8">
+    <row r="37" spans="5:40" ht="29">
       <c r="E37" s="7" t="s">
         <v>93</v>
       </c>
@@ -7339,7 +7342,7 @@
       <c r="AB37" s="22"/>
       <c r="AC37" s="22"/>
     </row>
-    <row r="38" spans="5:40" ht="28.8">
+    <row r="38" spans="5:40" ht="29">
       <c r="E38" s="7" t="s">
         <v>97</v>
       </c>
@@ -7415,7 +7418,7 @@
       <c r="AB38" s="22"/>
       <c r="AC38" s="22"/>
     </row>
-    <row r="39" spans="5:40" ht="28.8">
+    <row r="39" spans="5:40" ht="29">
       <c r="E39" s="7" t="s">
         <v>98</v>
       </c>
@@ -7491,7 +7494,7 @@
       <c r="AB39" s="22"/>
       <c r="AC39" s="22"/>
     </row>
-    <row r="40" spans="5:40" ht="28.8">
+    <row r="40" spans="5:40" ht="29">
       <c r="E40" s="7" t="s">
         <v>100</v>
       </c>
@@ -7567,7 +7570,7 @@
       <c r="AB40" s="22"/>
       <c r="AC40" s="22"/>
     </row>
-    <row r="41" spans="5:40" ht="28.8">
+    <row r="41" spans="5:40" ht="29">
       <c r="E41" s="7" t="s">
         <v>101</v>
       </c>
@@ -7641,7 +7644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="5:40" ht="28.8">
+    <row r="42" spans="5:40" ht="29">
       <c r="E42" s="7" t="s">
         <v>102</v>
       </c>
@@ -7717,7 +7720,7 @@
       <c r="AB42" s="22"/>
       <c r="AC42" s="22"/>
     </row>
-    <row r="43" spans="5:40" ht="28.8">
+    <row r="43" spans="5:40" ht="29">
       <c r="E43" s="7" t="s">
         <v>103</v>
       </c>
@@ -7793,7 +7796,7 @@
       <c r="AB43" s="22"/>
       <c r="AC43" s="22"/>
     </row>
-    <row r="44" spans="5:40" s="5" customFormat="1" ht="28.8">
+    <row r="44" spans="5:40" s="5" customFormat="1" ht="29">
       <c r="E44" s="7" t="s">
         <v>104</v>
       </c>
@@ -7880,7 +7883,7 @@
       <c r="AM44" s="1"/>
       <c r="AN44" s="1"/>
     </row>
-    <row r="45" spans="5:40" ht="28.8">
+    <row r="45" spans="5:40" ht="29">
       <c r="E45" s="7" t="s">
         <v>105</v>
       </c>
@@ -7956,7 +7959,7 @@
       <c r="AB45" s="22"/>
       <c r="AC45" s="22"/>
     </row>
-    <row r="46" spans="5:40" ht="28.8">
+    <row r="46" spans="5:40" ht="29">
       <c r="E46" s="7" t="s">
         <v>106</v>
       </c>
@@ -8032,7 +8035,7 @@
       <c r="AB46" s="22"/>
       <c r="AC46" s="22"/>
     </row>
-    <row r="47" spans="5:40" ht="28.8">
+    <row r="47" spans="5:40" ht="29">
       <c r="E47" s="7" t="s">
         <v>107</v>
       </c>
@@ -8106,7 +8109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="5:40" ht="28.8">
+    <row r="48" spans="5:40" ht="29">
       <c r="E48" s="7" t="s">
         <v>108</v>
       </c>
@@ -8180,7 +8183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="5:29" ht="28.8">
+    <row r="49" spans="5:29" ht="29">
       <c r="E49" s="7" t="s">
         <v>109</v>
       </c>
@@ -8256,7 +8259,7 @@
       <c r="AB49" s="22"/>
       <c r="AC49" s="22"/>
     </row>
-    <row r="50" spans="5:29" ht="28.8">
+    <row r="50" spans="5:29" ht="29">
       <c r="E50" s="7" t="s">
         <v>110</v>
       </c>
@@ -8330,7 +8333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="5:29" ht="28.8">
+    <row r="51" spans="5:29" ht="29">
       <c r="E51" s="7" t="s">
         <v>111</v>
       </c>
@@ -8406,7 +8409,7 @@
       <c r="AB51" s="22"/>
       <c r="AC51" s="22"/>
     </row>
-    <row r="52" spans="5:29" ht="28.8">
+    <row r="52" spans="5:29" ht="29">
       <c r="E52" s="7" t="s">
         <v>87</v>
       </c>
@@ -8480,7 +8483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="5:29" ht="28.8">
+    <row r="53" spans="5:29" ht="29">
       <c r="E53" s="7" t="s">
         <v>33</v>
       </c>
@@ -8556,7 +8559,7 @@
       <c r="AB53" s="22"/>
       <c r="AC53" s="22"/>
     </row>
-    <row r="54" spans="5:29" ht="28.8">
+    <row r="54" spans="5:29" ht="29">
       <c r="E54" s="7" t="s">
         <v>77</v>
       </c>
@@ -8632,7 +8635,7 @@
       <c r="AB54" s="22"/>
       <c r="AC54" s="22"/>
     </row>
-    <row r="55" spans="5:29" ht="28.8">
+    <row r="55" spans="5:29" ht="29">
       <c r="E55" s="7" t="s">
         <v>80</v>
       </c>
@@ -8706,7 +8709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="5:29" ht="28.8">
+    <row r="56" spans="5:29" ht="29">
       <c r="E56" s="7" t="s">
         <v>113</v>
       </c>
@@ -8782,7 +8785,7 @@
       <c r="AB56" s="22"/>
       <c r="AC56" s="22"/>
     </row>
-    <row r="57" spans="5:29" ht="28.8">
+    <row r="57" spans="5:29" ht="43.5">
       <c r="E57" s="7" t="s">
         <v>38</v>
       </c>
@@ -8856,7 +8859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="5:29" ht="43.2">
+    <row r="58" spans="5:29" ht="43.5">
       <c r="E58" s="7" t="s">
         <v>43</v>
       </c>
@@ -8932,7 +8935,7 @@
       <c r="AB58" s="22"/>
       <c r="AC58" s="22"/>
     </row>
-    <row r="59" spans="5:29" ht="28.8">
+    <row r="59" spans="5:29" ht="29">
       <c r="E59" s="7" t="s">
         <v>36</v>
       </c>
@@ -9008,7 +9011,7 @@
       <c r="AB59" s="22"/>
       <c r="AC59" s="22"/>
     </row>
-    <row r="60" spans="5:29" ht="28.8">
+    <row r="60" spans="5:29" ht="29">
       <c r="E60" s="7" t="s">
         <v>69</v>
       </c>
@@ -9084,7 +9087,7 @@
       <c r="AB60" s="22"/>
       <c r="AC60" s="22"/>
     </row>
-    <row r="61" spans="5:29" ht="28.8">
+    <row r="61" spans="5:29" ht="29">
       <c r="E61" s="7" t="s">
         <v>48</v>
       </c>
@@ -9160,7 +9163,7 @@
       <c r="AB61" s="22"/>
       <c r="AC61" s="22"/>
     </row>
-    <row r="62" spans="5:29" ht="28.8">
+    <row r="62" spans="5:29" ht="29">
       <c r="E62" s="7" t="s">
         <v>52</v>
       </c>
@@ -9236,7 +9239,7 @@
       <c r="AB62" s="22"/>
       <c r="AC62" s="22"/>
     </row>
-    <row r="63" spans="5:29" ht="28.8">
+    <row r="63" spans="5:29" ht="29">
       <c r="E63" s="7" t="s">
         <v>136</v>
       </c>
@@ -9310,7 +9313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="5:29" ht="28.8">
+    <row r="64" spans="5:29" ht="29">
       <c r="E64" s="7" t="s">
         <v>125</v>
       </c>
@@ -9386,7 +9389,7 @@
       <c r="AB64" s="22"/>
       <c r="AC64" s="22"/>
     </row>
-    <row r="65" spans="5:29" ht="28.8">
+    <row r="65" spans="5:29" ht="29">
       <c r="E65" s="7" t="s">
         <v>46</v>
       </c>
@@ -9460,7 +9463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="5:29" ht="28.8">
+    <row r="66" spans="5:29" ht="29">
       <c r="E66" s="7" t="s">
         <v>128</v>
       </c>
@@ -9534,7 +9537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="5:29" ht="28.8">
+    <row r="67" spans="5:29" ht="29">
       <c r="E67" s="7" t="s">
         <v>99</v>
       </c>
@@ -9608,7 +9611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="5:29" ht="28.8">
+    <row r="68" spans="5:29" ht="29">
       <c r="E68" s="7" t="s">
         <v>99</v>
       </c>
@@ -9682,7 +9685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="5:29" ht="28.8">
+    <row r="69" spans="5:29" ht="29">
       <c r="E69" s="7" t="s">
         <v>13</v>
       </c>
@@ -9758,7 +9761,7 @@
       <c r="AB69" s="22"/>
       <c r="AC69" s="22"/>
     </row>
-    <row r="70" spans="5:29" ht="28.8">
+    <row r="70" spans="5:29" ht="29">
       <c r="E70" s="7" t="s">
         <v>45</v>
       </c>
@@ -9832,7 +9835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="5:29" ht="28.8">
+    <row r="71" spans="5:29" ht="29">
       <c r="E71" s="7" t="s">
         <v>119</v>
       </c>
@@ -9908,7 +9911,7 @@
       <c r="AB71" s="22"/>
       <c r="AC71" s="22"/>
     </row>
-    <row r="72" spans="5:29" ht="28.8">
+    <row r="72" spans="5:29" ht="29">
       <c r="E72" s="7" t="s">
         <v>139</v>
       </c>
@@ -9984,7 +9987,7 @@
       <c r="AB72" s="22"/>
       <c r="AC72" s="22"/>
     </row>
-    <row r="73" spans="5:29" ht="28.8">
+    <row r="73" spans="5:29" ht="29">
       <c r="E73" s="7" t="s">
         <v>71</v>
       </c>
@@ -10058,7 +10061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="5:29" ht="43.2">
+    <row r="74" spans="5:29" ht="43.5">
       <c r="E74" s="7" t="s">
         <v>73</v>
       </c>
@@ -10134,7 +10137,7 @@
       <c r="AB74" s="22"/>
       <c r="AC74" s="22"/>
     </row>
-    <row r="75" spans="5:29" ht="28.8">
+    <row r="75" spans="5:29" ht="29">
       <c r="E75" s="7" t="s">
         <v>37</v>
       </c>
@@ -10210,7 +10213,7 @@
       <c r="AB75" s="22"/>
       <c r="AC75" s="22"/>
     </row>
-    <row r="76" spans="5:29" ht="28.8">
+    <row r="76" spans="5:29" ht="29">
       <c r="E76" s="7" t="s">
         <v>47</v>
       </c>
@@ -10286,7 +10289,7 @@
       <c r="AB76" s="22"/>
       <c r="AC76" s="22"/>
     </row>
-    <row r="77" spans="5:29" ht="28.8">
+    <row r="77" spans="5:29" ht="29">
       <c r="E77" s="7" t="s">
         <v>120</v>
       </c>
@@ -10360,7 +10363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="5:29" ht="28.8">
+    <row r="78" spans="5:29" ht="29">
       <c r="E78" s="7" t="s">
         <v>79</v>
       </c>
@@ -10434,7 +10437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="5:29" ht="28.8">
+    <row r="79" spans="5:29" ht="29">
       <c r="E79" s="7" t="s">
         <v>83</v>
       </c>
@@ -10510,7 +10513,7 @@
       <c r="AB79" s="22"/>
       <c r="AC79" s="22"/>
     </row>
-    <row r="80" spans="5:29" ht="28.8">
+    <row r="80" spans="5:29" ht="29">
       <c r="E80" s="7" t="s">
         <v>127</v>
       </c>
@@ -10584,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="5:29" ht="28.8">
+    <row r="81" spans="5:29" ht="29">
       <c r="E81" s="7" t="s">
         <v>15</v>
       </c>
@@ -10660,7 +10663,7 @@
       <c r="AB81" s="22"/>
       <c r="AC81" s="22"/>
     </row>
-    <row r="82" spans="5:29" ht="28.8">
+    <row r="82" spans="5:29" ht="29">
       <c r="E82" s="7" t="s">
         <v>56</v>
       </c>
@@ -10736,7 +10739,7 @@
       <c r="AB82" s="22"/>
       <c r="AC82" s="22"/>
     </row>
-    <row r="83" spans="5:29" ht="28.8">
+    <row r="83" spans="5:29" ht="29">
       <c r="E83" s="7" t="s">
         <v>88</v>
       </c>
@@ -10810,7 +10813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="5:29" ht="28.8">
+    <row r="84" spans="5:29" ht="29">
       <c r="E84" s="7" t="s">
         <v>115</v>
       </c>
@@ -10884,7 +10887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="5:29" ht="28.8">
+    <row r="85" spans="5:29" ht="29">
       <c r="E85" s="7" t="s">
         <v>117</v>
       </c>
@@ -10958,7 +10961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="5:29" ht="28.8">
+    <row r="86" spans="5:29" ht="29">
       <c r="E86" s="7" t="s">
         <v>84</v>
       </c>
@@ -11034,7 +11037,7 @@
       <c r="AB86" s="22"/>
       <c r="AC86" s="22"/>
     </row>
-    <row r="87" spans="5:29" ht="28.8">
+    <row r="87" spans="5:29" ht="29">
       <c r="E87" s="7" t="s">
         <v>27</v>
       </c>
@@ -11110,7 +11113,7 @@
       <c r="AB87" s="22"/>
       <c r="AC87" s="22"/>
     </row>
-    <row r="88" spans="5:29" ht="28.8">
+    <row r="88" spans="5:29" ht="29">
       <c r="E88" s="7" t="s">
         <v>78</v>
       </c>
@@ -11184,7 +11187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="5:29" ht="28.8">
+    <row r="89" spans="5:29" ht="29">
       <c r="E89" s="7" t="s">
         <v>62</v>
       </c>
@@ -11258,7 +11261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="5:29" ht="28.8">
+    <row r="90" spans="5:29" ht="29">
       <c r="E90" s="7" t="s">
         <v>85</v>
       </c>
@@ -11334,7 +11337,7 @@
       <c r="AB90" s="22"/>
       <c r="AC90" s="22"/>
     </row>
-    <row r="91" spans="5:29" ht="28.8">
+    <row r="91" spans="5:29" ht="29">
       <c r="E91" s="7" t="s">
         <v>81</v>
       </c>
@@ -11410,7 +11413,7 @@
       <c r="AB91" s="22"/>
       <c r="AC91" s="22"/>
     </row>
-    <row r="92" spans="5:29" ht="43.2">
+    <row r="92" spans="5:29" ht="43.5">
       <c r="E92" s="7" t="s">
         <v>39</v>
       </c>
@@ -11484,7 +11487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="5:29" ht="28.8">
+    <row r="93" spans="5:29" ht="29">
       <c r="E93" s="7" t="s">
         <v>41</v>
       </c>
@@ -11558,7 +11561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="5:29" ht="28.8">
+    <row r="94" spans="5:29" ht="29">
       <c r="E94" s="7" t="s">
         <v>31</v>
       </c>
@@ -11632,7 +11635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="5:29" ht="28.8">
+    <row r="95" spans="5:29" ht="29">
       <c r="E95" s="7" t="s">
         <v>132</v>
       </c>
@@ -11708,7 +11711,7 @@
       <c r="AB95" s="22"/>
       <c r="AC95" s="22"/>
     </row>
-    <row r="96" spans="5:29" ht="28.8">
+    <row r="96" spans="5:29" ht="29">
       <c r="E96" s="7" t="s">
         <v>59</v>
       </c>
@@ -11784,7 +11787,7 @@
       <c r="AB96" s="22"/>
       <c r="AC96" s="22"/>
     </row>
-    <row r="97" spans="5:29" ht="28.8">
+    <row r="97" spans="5:29" ht="29">
       <c r="E97" s="7" t="s">
         <v>59</v>
       </c>
@@ -11860,7 +11863,7 @@
       <c r="AB97" s="22"/>
       <c r="AC97" s="22"/>
     </row>
-    <row r="98" spans="5:29" ht="28.8">
+    <row r="98" spans="5:29" ht="29">
       <c r="E98" s="7" t="s">
         <v>59</v>
       </c>
@@ -11936,7 +11939,7 @@
       <c r="AB98" s="22"/>
       <c r="AC98" s="22"/>
     </row>
-    <row r="99" spans="5:29" ht="28.8">
+    <row r="99" spans="5:29" ht="29">
       <c r="E99" s="7" t="s">
         <v>34</v>
       </c>
@@ -12012,7 +12015,7 @@
       <c r="AB99" s="22"/>
       <c r="AC99" s="22"/>
     </row>
-    <row r="100" spans="5:29" ht="28.8">
+    <row r="100" spans="5:29" ht="29">
       <c r="E100" s="7" t="s">
         <v>51</v>
       </c>
@@ -12086,7 +12089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="5:29" ht="28.8">
+    <row r="101" spans="5:29" ht="29">
       <c r="E101" s="7" t="s">
         <v>130</v>
       </c>
@@ -12162,7 +12165,7 @@
       <c r="AB101" s="22"/>
       <c r="AC101" s="22"/>
     </row>
-    <row r="102" spans="5:29" ht="28.8">
+    <row r="102" spans="5:29" ht="29">
       <c r="E102" s="7" t="s">
         <v>118</v>
       </c>
@@ -12236,7 +12239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="5:29" ht="28.8">
+    <row r="103" spans="5:29" ht="29">
       <c r="E103" s="7" t="s">
         <v>96</v>
       </c>
@@ -12312,7 +12315,7 @@
       <c r="AB103" s="22"/>
       <c r="AC103" s="22"/>
     </row>
-    <row r="104" spans="5:29" ht="28.8">
+    <row r="104" spans="5:29" ht="29">
       <c r="E104" s="7" t="s">
         <v>123</v>
       </c>
@@ -12386,7 +12389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="5:29" ht="28.8">
+    <row r="105" spans="5:29" ht="29">
       <c r="E105" s="7" t="s">
         <v>112</v>
       </c>
@@ -12462,7 +12465,7 @@
       <c r="AB105" s="22"/>
       <c r="AC105" s="22"/>
     </row>
-    <row r="106" spans="5:29" ht="28.8">
+    <row r="106" spans="5:29" ht="29">
       <c r="E106" s="7" t="s">
         <v>135</v>
       </c>
@@ -12536,7 +12539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="5:29" ht="28.8">
+    <row r="107" spans="5:29" ht="29">
       <c r="E107" s="7" t="s">
         <v>53</v>
       </c>
@@ -12610,7 +12613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="5:29" ht="28.8">
+    <row r="108" spans="5:29" ht="29">
       <c r="E108" s="7" t="s">
         <v>29</v>
       </c>
@@ -12686,7 +12689,7 @@
       <c r="AB108" s="22"/>
       <c r="AC108" s="22"/>
     </row>
-    <row r="109" spans="5:29" ht="28.8">
+    <row r="109" spans="5:29" ht="29">
       <c r="E109" s="7" t="s">
         <v>35</v>
       </c>
@@ -12760,7 +12763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="5:29" ht="28.8">
+    <row r="110" spans="5:29" ht="29">
       <c r="E110" s="7" t="s">
         <v>35</v>
       </c>
@@ -12836,7 +12839,7 @@
       <c r="AB110" s="22"/>
       <c r="AC110" s="22"/>
     </row>
-    <row r="111" spans="5:29" ht="28.8">
+    <row r="111" spans="5:29" ht="29">
       <c r="E111" s="7" t="s">
         <v>141</v>
       </c>
@@ -12912,7 +12915,7 @@
       <c r="AB111" s="22"/>
       <c r="AC111" s="22"/>
     </row>
-    <row r="112" spans="5:29" ht="28.8">
+    <row r="112" spans="5:29" ht="29">
       <c r="E112" s="7" t="s">
         <v>116</v>
       </c>
@@ -12988,7 +12991,7 @@
       <c r="AB112" s="22"/>
       <c r="AC112" s="22"/>
     </row>
-    <row r="113" spans="5:29" ht="28.8">
+    <row r="113" spans="5:29" ht="29">
       <c r="E113" s="7" t="s">
         <v>131</v>
       </c>
@@ -13062,7 +13065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="5:29" ht="28.8">
+    <row r="114" spans="5:29" ht="29">
       <c r="E114" s="7" t="s">
         <v>54</v>
       </c>
@@ -13136,7 +13139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="5:29" ht="28.8">
+    <row r="115" spans="5:29" ht="29">
       <c r="E115" s="7" t="s">
         <v>76</v>
       </c>
@@ -13212,7 +13215,7 @@
       <c r="AB115" s="22"/>
       <c r="AC115" s="22"/>
     </row>
-    <row r="116" spans="5:29" ht="28.8">
+    <row r="116" spans="5:29" ht="29">
       <c r="E116" s="7" t="s">
         <v>25</v>
       </c>
@@ -13288,7 +13291,7 @@
       <c r="AB116" s="22"/>
       <c r="AC116" s="22"/>
     </row>
-    <row r="117" spans="5:29" ht="28.8">
+    <row r="117" spans="5:29" ht="29">
       <c r="E117" s="7" t="s">
         <v>64</v>
       </c>
@@ -13362,7 +13365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="5:29" ht="28.8">
+    <row r="118" spans="5:29" ht="29">
       <c r="E118" s="7" t="s">
         <v>49</v>
       </c>
@@ -13438,7 +13441,7 @@
       <c r="AB118" s="22"/>
       <c r="AC118" s="22"/>
     </row>
-    <row r="119" spans="5:29" ht="28.8">
+    <row r="119" spans="5:29" ht="29">
       <c r="E119" s="7" t="s">
         <v>126</v>
       </c>
@@ -13512,7 +13515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="5:29" ht="28.8">
+    <row r="120" spans="5:29" ht="29">
       <c r="E120" s="7" t="s">
         <v>60</v>
       </c>
@@ -13586,7 +13589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="5:29" ht="28.8">
+    <row r="121" spans="5:29" ht="29">
       <c r="E121" s="7" t="s">
         <v>122</v>
       </c>
@@ -13660,7 +13663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="5:29" ht="28.8">
+    <row r="122" spans="5:29" ht="29">
       <c r="E122" s="7" t="s">
         <v>89</v>
       </c>
@@ -13734,7 +13737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="5:29" ht="28.8">
+    <row r="123" spans="5:29" ht="29">
       <c r="E123" s="7" t="s">
         <v>18</v>
       </c>
@@ -13810,7 +13813,7 @@
       <c r="AB123" s="22"/>
       <c r="AC123" s="22"/>
     </row>
-    <row r="124" spans="5:29" ht="28.8">
+    <row r="124" spans="5:29" ht="29">
       <c r="E124" s="7" t="s">
         <v>133</v>
       </c>
@@ -13884,7 +13887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="5:29" ht="28.8">
+    <row r="125" spans="5:29" ht="29">
       <c r="E125" s="7" t="s">
         <v>23</v>
       </c>
@@ -13960,7 +13963,7 @@
       <c r="AB125" s="22"/>
       <c r="AC125" s="22"/>
     </row>
-    <row r="126" spans="5:29" ht="28.8">
+    <row r="126" spans="5:29" ht="29">
       <c r="E126" s="7" t="s">
         <v>26</v>
       </c>
@@ -14036,7 +14039,7 @@
       <c r="AB126" s="22"/>
       <c r="AC126" s="22"/>
     </row>
-    <row r="127" spans="5:29" ht="28.8">
+    <row r="127" spans="5:29" ht="29">
       <c r="E127" s="7" t="s">
         <v>134</v>
       </c>
@@ -14112,7 +14115,7 @@
       <c r="AB127" s="22"/>
       <c r="AC127" s="22"/>
     </row>
-    <row r="128" spans="5:29" ht="28.8">
+    <row r="128" spans="5:29" ht="29">
       <c r="E128" s="7" t="s">
         <v>66</v>
       </c>
@@ -14206,51 +14209,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CA3DC9-3CA0-422B-92E3-7B3B090AE14B}">
   <dimension ref="A2:AB35"/>
   <sheetViews>
-    <sheetView topLeftCell="O8" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2" spans="1:28">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="152" t="s">
         <v>793</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="152" t="s">
         <v>793</v>
       </c>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="129" t="s">
+      <c r="O2" s="152" t="s">
         <v>793</v>
       </c>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
       <c r="U2" s="24"/>
-      <c r="V2" s="129" t="s">
+      <c r="V2" s="152" t="s">
         <v>793</v>
       </c>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="152"/>
       <c r="AB2" s="24"/>
     </row>
-    <row r="3" spans="1:28" ht="23.7">
+    <row r="3" spans="1:28" ht="24">
       <c r="A3" s="25" t="s">
         <v>138</v>
       </c>
@@ -14328,7 +14331,7 @@
       </c>
       <c r="AB3" s="24"/>
     </row>
-    <row r="4" spans="1:28" ht="22.8">
+    <row r="4" spans="1:28" ht="23">
       <c r="A4" s="29" t="s">
         <v>779</v>
       </c>
@@ -14406,7 +14409,7 @@
       </c>
       <c r="AB4" s="24"/>
     </row>
-    <row r="5" spans="1:28" ht="22.8">
+    <row r="5" spans="1:28" ht="23">
       <c r="A5" s="34" t="s">
         <v>780</v>
       </c>
@@ -14484,7 +14487,7 @@
       </c>
       <c r="AB5" s="24"/>
     </row>
-    <row r="6" spans="1:28" ht="22.8">
+    <row r="6" spans="1:28" ht="23">
       <c r="A6" s="34" t="s">
         <v>781</v>
       </c>
@@ -14562,7 +14565,7 @@
       </c>
       <c r="AB6" s="24"/>
     </row>
-    <row r="7" spans="1:28" ht="34.200000000000003">
+    <row r="7" spans="1:28" ht="34.5">
       <c r="A7" s="34" t="s">
         <v>782</v>
       </c>
@@ -14640,7 +14643,7 @@
       </c>
       <c r="AB7" s="24"/>
     </row>
-    <row r="8" spans="1:28" ht="22.8">
+    <row r="8" spans="1:28" ht="23">
       <c r="A8" s="34" t="s">
         <v>783</v>
       </c>
@@ -14718,7 +14721,7 @@
       </c>
       <c r="AB8" s="24"/>
     </row>
-    <row r="9" spans="1:28" ht="22.8">
+    <row r="9" spans="1:28" ht="23">
       <c r="A9" s="34" t="s">
         <v>784</v>
       </c>
@@ -14796,7 +14799,7 @@
       </c>
       <c r="AB9" s="24"/>
     </row>
-    <row r="10" spans="1:28" ht="22.8">
+    <row r="10" spans="1:28" ht="23">
       <c r="A10" s="34" t="s">
         <v>785</v>
       </c>
@@ -14874,7 +14877,7 @@
       </c>
       <c r="AB10" s="24"/>
     </row>
-    <row r="11" spans="1:28" ht="45.6">
+    <row r="11" spans="1:28" ht="57.5">
       <c r="A11" s="34" t="s">
         <v>786</v>
       </c>
@@ -14952,7 +14955,7 @@
       </c>
       <c r="AB11" s="24"/>
     </row>
-    <row r="12" spans="1:28" ht="34.200000000000003">
+    <row r="12" spans="1:28" ht="34.5">
       <c r="A12" s="34" t="s">
         <v>787</v>
       </c>
@@ -15030,7 +15033,7 @@
       </c>
       <c r="AB12" s="24"/>
     </row>
-    <row r="13" spans="1:28" ht="45.6">
+    <row r="13" spans="1:28" ht="46">
       <c r="A13" s="34" t="s">
         <v>788</v>
       </c>
@@ -15108,7 +15111,7 @@
       </c>
       <c r="AB13" s="24"/>
     </row>
-    <row r="14" spans="1:28" ht="34.200000000000003">
+    <row r="14" spans="1:28" ht="34.5">
       <c r="A14" s="34" t="s">
         <v>789</v>
       </c>
@@ -15186,7 +15189,7 @@
       </c>
       <c r="AB14" s="24"/>
     </row>
-    <row r="15" spans="1:28" ht="34.200000000000003">
+    <row r="15" spans="1:28" ht="34.5">
       <c r="A15" s="34" t="s">
         <v>790</v>
       </c>
@@ -15264,7 +15267,7 @@
       </c>
       <c r="AB15" s="24"/>
     </row>
-    <row r="16" spans="1:28" ht="22.8">
+    <row r="16" spans="1:28" ht="23">
       <c r="A16" s="44" t="s">
         <v>791</v>
       </c>
@@ -15310,7 +15313,7 @@
       <c r="AA16" s="47"/>
       <c r="AB16" s="24"/>
     </row>
-    <row r="17" spans="1:28" ht="45.6">
+    <row r="17" spans="1:28" ht="46">
       <c r="A17" s="68" t="s">
         <v>792</v>
       </c>
@@ -15349,25 +15352,25 @@
       <c r="AB17" s="24"/>
     </row>
     <row r="19" spans="1:28">
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="152" t="s">
         <v>801</v>
       </c>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
       <c r="P19" s="24"/>
     </row>
-    <row r="20" spans="1:28" ht="46.5">
+    <row r="20" spans="1:28" ht="58.5">
       <c r="B20" s="69" t="s">
         <v>797</v>
       </c>
@@ -15498,7 +15501,7 @@
       </c>
       <c r="P22" s="24"/>
     </row>
-    <row r="23" spans="1:28" ht="22.8">
+    <row r="23" spans="1:28" ht="23">
       <c r="B23" s="55"/>
       <c r="C23" s="55" t="s">
         <v>778</v>
@@ -15629,7 +15632,7 @@
       </c>
       <c r="P25" s="24"/>
     </row>
-    <row r="26" spans="1:28" ht="22.8">
+    <row r="26" spans="1:28" ht="23">
       <c r="B26" s="55"/>
       <c r="C26" s="55" t="s">
         <v>778</v>
@@ -15672,7 +15675,7 @@
       </c>
       <c r="P26" s="24"/>
     </row>
-    <row r="27" spans="1:28" ht="22.8">
+    <row r="27" spans="1:28" ht="23">
       <c r="B27" s="55" t="s">
         <v>799</v>
       </c>
@@ -15760,7 +15763,7 @@
       </c>
       <c r="P28" s="24"/>
     </row>
-    <row r="29" spans="1:28" ht="22.8">
+    <row r="29" spans="1:28" ht="23">
       <c r="B29" s="55"/>
       <c r="C29" s="55" t="s">
         <v>778</v>
@@ -15891,7 +15894,7 @@
       </c>
       <c r="P31" s="24"/>
     </row>
-    <row r="32" spans="1:28" ht="22.8">
+    <row r="32" spans="1:28" ht="23">
       <c r="B32" s="55"/>
       <c r="C32" s="55" t="s">
         <v>778</v>
@@ -16022,7 +16025,7 @@
       </c>
       <c r="P34" s="24"/>
     </row>
-    <row r="35" spans="2:16" ht="22.8">
+    <row r="35" spans="2:16" ht="23">
       <c r="B35" s="44"/>
       <c r="C35" s="44" t="s">
         <v>778</v>
@@ -16081,33 +16084,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308875E1-CE77-400E-8252-6D56DADD0A77}">
   <dimension ref="B2:T51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="153" t="s">
         <v>814</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
       <c r="H2" s="70"/>
-      <c r="I2" s="130" t="s">
+      <c r="I2" s="153" t="s">
         <v>814</v>
       </c>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
       <c r="O2" s="70"/>
     </row>
-    <row r="3" spans="2:15" ht="23.7">
+    <row r="3" spans="2:15" ht="24">
       <c r="B3" s="71" t="s">
         <v>138</v>
       </c>
@@ -16219,7 +16222,7 @@
       </c>
       <c r="O5" s="70"/>
     </row>
-    <row r="6" spans="2:15" ht="22.8">
+    <row r="6" spans="2:15" ht="23">
       <c r="B6" s="79"/>
       <c r="C6" s="79" t="s">
         <v>799</v>
@@ -16323,7 +16326,7 @@
       <c r="N8" s="86"/>
       <c r="O8" s="70"/>
     </row>
-    <row r="9" spans="2:15" ht="34.200000000000003">
+    <row r="9" spans="2:15" ht="46">
       <c r="B9" s="88" t="s">
         <v>807</v>
       </c>
@@ -16360,26 +16363,26 @@
       <c r="O10" s="70"/>
     </row>
     <row r="11" spans="2:15" ht="22.5" customHeight="1">
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="153" t="s">
         <v>815</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
       <c r="H11" s="70"/>
-      <c r="I11" s="130" t="s">
+      <c r="I11" s="153" t="s">
         <v>815</v>
       </c>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="130"/>
+      <c r="J11" s="153"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="153"/>
+      <c r="M11" s="153"/>
+      <c r="N11" s="153"/>
       <c r="O11" s="70"/>
     </row>
-    <row r="12" spans="2:15" ht="23.7">
+    <row r="12" spans="2:15" ht="24">
       <c r="B12" s="71" t="s">
         <v>138</v>
       </c>
@@ -16491,7 +16494,7 @@
       </c>
       <c r="O14" s="70"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" ht="23">
       <c r="B15" s="79"/>
       <c r="C15" s="79" t="s">
         <v>810</v>
@@ -16667,7 +16670,7 @@
       <c r="N19" s="86"/>
       <c r="O19" s="70"/>
     </row>
-    <row r="20" spans="2:20" ht="34.200000000000003">
+    <row r="20" spans="2:20" ht="46">
       <c r="B20" s="88" t="s">
         <v>807</v>
       </c>
@@ -16691,41 +16694,41 @@
       <c r="H21" s="70"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="157" t="s">
         <v>822</v>
       </c>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="157"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="130" t="s">
+      <c r="B24" s="153" t="s">
         <v>817</v>
       </c>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
       <c r="H24" s="70"/>
-      <c r="I24" s="130" t="s">
+      <c r="I24" s="153" t="s">
         <v>823</v>
       </c>
-      <c r="J24" s="130"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="130"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="130"/>
-      <c r="O24" s="130"/>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="130"/>
-      <c r="R24" s="130"/>
-      <c r="S24" s="130"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="153"/>
+      <c r="O24" s="153"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="153"/>
+      <c r="R24" s="153"/>
+      <c r="S24" s="153"/>
       <c r="T24" s="70"/>
     </row>
-    <row r="25" spans="2:20" ht="35.1">
+    <row r="25" spans="2:20" ht="35.5">
       <c r="B25" s="71" t="s">
         <v>818</v>
       </c>
@@ -16746,11 +16749,11 @@
       <c r="I25" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="J25" s="131"/>
-      <c r="K25" s="132" t="s">
+      <c r="J25" s="154"/>
+      <c r="K25" s="155" t="s">
         <v>824</v>
       </c>
-      <c r="L25" s="133"/>
+      <c r="L25" s="156"/>
       <c r="M25" s="115" t="s">
         <v>825</v>
       </c>
@@ -16762,7 +16765,7 @@
       <c r="S25" s="116"/>
       <c r="T25" s="70"/>
     </row>
-    <row r="26" spans="2:20" ht="46.5">
+    <row r="26" spans="2:20" ht="47">
       <c r="B26" s="89" t="s">
         <v>779</v>
       </c>
@@ -16783,11 +16786,11 @@
       </c>
       <c r="H26" s="70"/>
       <c r="I26" s="114"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="132" t="s">
+      <c r="J26" s="154"/>
+      <c r="K26" s="155" t="s">
         <v>826</v>
       </c>
-      <c r="L26" s="133" t="s">
+      <c r="L26" s="156" t="s">
         <v>827</v>
       </c>
       <c r="M26" s="115" t="s">
@@ -16811,7 +16814,7 @@
       <c r="S26" s="116"/>
       <c r="T26" s="70"/>
     </row>
-    <row r="27" spans="2:20" ht="22.8">
+    <row r="27" spans="2:20" ht="23">
       <c r="B27" s="93"/>
       <c r="C27" s="93" t="s">
         <v>821</v>
@@ -16846,7 +16849,7 @@
       </c>
       <c r="T27" s="70"/>
     </row>
-    <row r="28" spans="2:20" ht="34.200000000000003">
+    <row r="28" spans="2:20" ht="34.5">
       <c r="B28" s="93" t="s">
         <v>780</v>
       </c>
@@ -16901,7 +16904,7 @@
       </c>
       <c r="T28" s="70"/>
     </row>
-    <row r="29" spans="2:20" ht="34.200000000000003">
+    <row r="29" spans="2:20" ht="46">
       <c r="B29" s="93"/>
       <c r="C29" s="93" t="s">
         <v>821</v>
@@ -16948,7 +16951,7 @@
       </c>
       <c r="T29" s="70"/>
     </row>
-    <row r="30" spans="2:20" ht="34.200000000000003">
+    <row r="30" spans="2:20" ht="34.5">
       <c r="B30" s="93" t="s">
         <v>781</v>
       </c>
@@ -17003,7 +17006,7 @@
       </c>
       <c r="T30" s="70"/>
     </row>
-    <row r="31" spans="2:20" ht="34.200000000000003">
+    <row r="31" spans="2:20" ht="46">
       <c r="B31" s="93"/>
       <c r="C31" s="93" t="s">
         <v>821</v>
@@ -17050,7 +17053,7 @@
       </c>
       <c r="T31" s="70"/>
     </row>
-    <row r="32" spans="2:20" ht="34.200000000000003">
+    <row r="32" spans="2:20" ht="34.5">
       <c r="B32" s="93" t="s">
         <v>782</v>
       </c>
@@ -17105,7 +17108,7 @@
       </c>
       <c r="T32" s="70"/>
     </row>
-    <row r="33" spans="2:20" ht="34.200000000000003">
+    <row r="33" spans="2:20" ht="46">
       <c r="B33" s="93"/>
       <c r="C33" s="93" t="s">
         <v>821</v>
@@ -17152,7 +17155,7 @@
       </c>
       <c r="T33" s="70"/>
     </row>
-    <row r="34" spans="2:20" ht="34.200000000000003">
+    <row r="34" spans="2:20" ht="34.5">
       <c r="B34" s="93" t="s">
         <v>783</v>
       </c>
@@ -17207,7 +17210,7 @@
       </c>
       <c r="T34" s="70"/>
     </row>
-    <row r="35" spans="2:20" ht="34.200000000000003">
+    <row r="35" spans="2:20" ht="46">
       <c r="B35" s="93"/>
       <c r="C35" s="93" t="s">
         <v>821</v>
@@ -17254,7 +17257,7 @@
       </c>
       <c r="T35" s="70"/>
     </row>
-    <row r="36" spans="2:20" ht="34.200000000000003">
+    <row r="36" spans="2:20" ht="34.5">
       <c r="B36" s="93" t="s">
         <v>784</v>
       </c>
@@ -17309,7 +17312,7 @@
       </c>
       <c r="T36" s="70"/>
     </row>
-    <row r="37" spans="2:20" ht="34.200000000000003">
+    <row r="37" spans="2:20" ht="46">
       <c r="B37" s="93"/>
       <c r="C37" s="93" t="s">
         <v>821</v>
@@ -17356,7 +17359,7 @@
       </c>
       <c r="T37" s="70"/>
     </row>
-    <row r="38" spans="2:20" ht="34.200000000000003">
+    <row r="38" spans="2:20" ht="34.5">
       <c r="B38" s="93" t="s">
         <v>785</v>
       </c>
@@ -17411,7 +17414,7 @@
       </c>
       <c r="T38" s="70"/>
     </row>
-    <row r="39" spans="2:20" ht="34.200000000000003">
+    <row r="39" spans="2:20" ht="46">
       <c r="B39" s="93"/>
       <c r="C39" s="93" t="s">
         <v>821</v>
@@ -17458,7 +17461,7 @@
       </c>
       <c r="T39" s="70"/>
     </row>
-    <row r="40" spans="2:20" ht="45.6">
+    <row r="40" spans="2:20" ht="69">
       <c r="B40" s="93" t="s">
         <v>786</v>
       </c>
@@ -17513,7 +17516,7 @@
       </c>
       <c r="T40" s="70"/>
     </row>
-    <row r="41" spans="2:20" ht="34.200000000000003">
+    <row r="41" spans="2:20" ht="46">
       <c r="B41" s="93"/>
       <c r="C41" s="93" t="s">
         <v>821</v>
@@ -17560,7 +17563,7 @@
       </c>
       <c r="T41" s="70"/>
     </row>
-    <row r="42" spans="2:20" ht="45.6">
+    <row r="42" spans="2:20" ht="69">
       <c r="B42" s="93" t="s">
         <v>787</v>
       </c>
@@ -17615,7 +17618,7 @@
       </c>
       <c r="T42" s="70"/>
     </row>
-    <row r="43" spans="2:20" ht="34.200000000000003">
+    <row r="43" spans="2:20" ht="46">
       <c r="B43" s="93"/>
       <c r="C43" s="93" t="s">
         <v>821</v>
@@ -17662,7 +17665,7 @@
       </c>
       <c r="T43" s="70"/>
     </row>
-    <row r="44" spans="2:20" ht="45.6">
+    <row r="44" spans="2:20" ht="57.5">
       <c r="B44" s="93" t="s">
         <v>788</v>
       </c>
@@ -17717,7 +17720,7 @@
       </c>
       <c r="T44" s="70"/>
     </row>
-    <row r="45" spans="2:20" ht="34.200000000000003">
+    <row r="45" spans="2:20" ht="46">
       <c r="B45" s="93"/>
       <c r="C45" s="93" t="s">
         <v>821</v>
@@ -17764,7 +17767,7 @@
       </c>
       <c r="T45" s="70"/>
     </row>
-    <row r="46" spans="2:20" ht="45.6">
+    <row r="46" spans="2:20" ht="57.5">
       <c r="B46" s="93" t="s">
         <v>789</v>
       </c>
@@ -17819,7 +17822,7 @@
       </c>
       <c r="T46" s="70"/>
     </row>
-    <row r="47" spans="2:20" ht="34.200000000000003">
+    <row r="47" spans="2:20" ht="46">
       <c r="B47" s="93"/>
       <c r="C47" s="93" t="s">
         <v>821</v>
@@ -17866,7 +17869,7 @@
       </c>
       <c r="T47" s="70"/>
     </row>
-    <row r="48" spans="2:20" ht="34.200000000000003">
+    <row r="48" spans="2:20" ht="34.5">
       <c r="B48" s="93" t="s">
         <v>790</v>
       </c>
@@ -17921,7 +17924,7 @@
       </c>
       <c r="T48" s="70"/>
     </row>
-    <row r="49" spans="2:20" ht="34.200000000000003">
+    <row r="49" spans="2:20" ht="46">
       <c r="B49" s="83"/>
       <c r="C49" s="83" t="s">
         <v>821</v>
@@ -17968,7 +17971,7 @@
       </c>
       <c r="T49" s="70"/>
     </row>
-    <row r="50" spans="2:20" ht="34.200000000000003">
+    <row r="50" spans="2:20" ht="34.5">
       <c r="I50" s="93" t="s">
         <v>790</v>
       </c>
@@ -18004,7 +18007,7 @@
       </c>
       <c r="T50" s="70"/>
     </row>
-    <row r="51" spans="2:20" ht="34.200000000000003">
+    <row r="51" spans="2:20" ht="46">
       <c r="I51" s="83"/>
       <c r="J51" s="83" t="s">
         <v>836</v>
@@ -18057,9 +18060,9 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.8">
+    <row r="1" spans="1:3" ht="34.5">
       <c r="A1" s="71"/>
       <c r="B1" s="128" t="s">
         <v>820</v>
@@ -18090,7 +18093,7 @@
         <v>8.5106382978723403</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22.8">
+    <row r="4" spans="1:3" ht="23">
       <c r="A4" s="79" t="s">
         <v>799</v>
       </c>
@@ -18132,365 +18135,365 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9124D4-4DFA-49B1-BFC5-7991A108AE93}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="34.68359375" style="145" customWidth="1"/>
-    <col min="2" max="5" width="10.9453125" style="1"/>
+    <col min="1" max="1" width="34.6328125" style="139" customWidth="1"/>
+    <col min="2" max="5" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="38.1" customHeight="1">
-      <c r="A1" s="147"/>
-      <c r="B1" s="148" t="s">
+    <row r="1" spans="1:5" ht="38.15" customHeight="1">
+      <c r="A1" s="141"/>
+      <c r="B1" s="142" t="s">
         <v>840</v>
       </c>
-      <c r="C1" s="149" t="s">
+      <c r="C1" s="143" t="s">
         <v>839</v>
       </c>
-      <c r="D1" s="149" t="s">
+      <c r="D1" s="143" t="s">
         <v>837</v>
       </c>
-      <c r="E1" s="149" t="s">
+      <c r="E1" s="143" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="144" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="145" t="s">
         <v>777</v>
       </c>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="145" t="s">
         <v>777</v>
       </c>
-      <c r="D2" s="151" t="s">
+      <c r="D2" s="145" t="s">
         <v>777</v>
       </c>
-      <c r="E2" s="151" t="s">
+      <c r="E2" s="145" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="146" t="s">
         <v>779</v>
       </c>
-      <c r="B3" s="153">
+      <c r="B3" s="147">
         <v>173.9375</v>
       </c>
-      <c r="C3" s="153">
+      <c r="C3" s="147">
         <v>197.61538461538464</v>
       </c>
-      <c r="D3" s="153">
+      <c r="D3" s="147">
         <v>385.03571428571422</v>
       </c>
-      <c r="E3" s="153">
+      <c r="E3" s="147">
         <v>274.29729729729723</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="148" t="s">
         <v>780</v>
       </c>
-      <c r="B4" s="155">
+      <c r="B4" s="149">
         <v>446.27083333333337</v>
       </c>
-      <c r="C4" s="155">
+      <c r="C4" s="149">
         <v>298</v>
       </c>
-      <c r="D4" s="155">
+      <c r="D4" s="149">
         <v>492.60714285714289</v>
       </c>
-      <c r="E4" s="155">
+      <c r="E4" s="149">
         <v>398.02702702702697</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="148" t="s">
         <v>781</v>
       </c>
-      <c r="B5" s="155">
+      <c r="B5" s="149">
         <v>56.270833333333314</v>
       </c>
-      <c r="C5" s="155">
+      <c r="C5" s="149">
         <v>75.538461538461547</v>
       </c>
-      <c r="D5" s="155">
+      <c r="D5" s="149">
         <v>169.07142857142856</v>
       </c>
-      <c r="E5" s="155">
+      <c r="E5" s="149">
         <v>83.567567567567565</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="156" t="s">
+      <c r="A6" s="150" t="s">
         <v>841</v>
       </c>
-      <c r="B6" s="157">
+      <c r="B6" s="151">
         <v>48</v>
       </c>
-      <c r="C6" s="157">
+      <c r="C6" s="151">
         <v>13</v>
       </c>
-      <c r="D6" s="157">
+      <c r="D6" s="151">
         <v>28</v>
       </c>
-      <c r="E6" s="157">
+      <c r="E6" s="151">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="E7" s="142"/>
-    </row>
-    <row r="8" spans="1:5" ht="34.200000000000003">
-      <c r="B8" s="135" t="s">
+      <c r="E7" s="136"/>
+    </row>
+    <row r="8" spans="1:5" ht="34.5">
+      <c r="B8" s="129" t="s">
         <v>840</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="130" t="s">
         <v>839</v>
       </c>
-      <c r="D8" s="136" t="s">
+      <c r="D8" s="130" t="s">
         <v>837</v>
       </c>
-      <c r="E8" s="136" t="s">
+      <c r="E8" s="130" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="131" t="s">
         <v>777</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="131" t="s">
         <v>777</v>
       </c>
-      <c r="D9" s="137" t="s">
+      <c r="D9" s="131" t="s">
         <v>777</v>
       </c>
-      <c r="E9" s="137" t="s">
+      <c r="E9" s="131" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="144" t="s">
+      <c r="A10" s="138" t="s">
         <v>782</v>
       </c>
-      <c r="B10" s="139">
+      <c r="B10" s="133">
         <v>2.8086202083333331</v>
       </c>
-      <c r="C10" s="139">
+      <c r="C10" s="133">
         <v>3.2612611538461533</v>
       </c>
-      <c r="D10" s="139">
+      <c r="D10" s="133">
         <v>3.7408366071428576</v>
       </c>
-      <c r="E10" s="139">
+      <c r="E10" s="133">
         <v>3.6841150000000007</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="138" t="s">
         <v>783</v>
       </c>
-      <c r="B11" s="139">
+      <c r="B11" s="133">
         <v>7.9449552077322395E-3</v>
       </c>
-      <c r="C11" s="139">
+      <c r="C11" s="133">
         <v>7.7575992183377875E-3</v>
       </c>
-      <c r="D11" s="139">
+      <c r="D11" s="133">
         <v>2.4479491906041597E-3</v>
       </c>
-      <c r="E11" s="139">
+      <c r="E11" s="133">
         <v>5.7064206438379728E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="144" t="s">
+      <c r="A12" s="138" t="s">
         <v>784</v>
       </c>
-      <c r="B12" s="138">
+      <c r="B12" s="132">
         <v>16.875000000000004</v>
       </c>
-      <c r="C12" s="138">
+      <c r="C12" s="132">
         <v>23.923076923076923</v>
       </c>
-      <c r="D12" s="138">
+      <c r="D12" s="132">
         <v>23.535714285714288</v>
       </c>
-      <c r="E12" s="138">
+      <c r="E12" s="132">
         <v>21.567567567567565</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="144" t="s">
+      <c r="A13" s="138" t="s">
         <v>785</v>
       </c>
-      <c r="B13" s="138">
+      <c r="B13" s="132">
         <v>31.229166666666664</v>
       </c>
-      <c r="C13" s="138">
+      <c r="C13" s="132">
         <v>13.615384615384615</v>
       </c>
-      <c r="D13" s="138">
+      <c r="D13" s="132">
         <v>12.964285714285714</v>
       </c>
-      <c r="E13" s="138">
+      <c r="E13" s="132">
         <v>22.54054054054054</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="138" t="s">
         <v>786</v>
       </c>
-      <c r="B14" s="140">
+      <c r="B14" s="134">
         <v>155.53368086454529</v>
       </c>
-      <c r="C14" s="140">
+      <c r="C14" s="134">
         <v>98.861670772822606</v>
       </c>
-      <c r="D14" s="140">
+      <c r="D14" s="134">
         <v>127.68410831679567</v>
       </c>
-      <c r="E14" s="140">
+      <c r="E14" s="134">
         <v>482.83210931317245</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="138" t="s">
         <v>787</v>
       </c>
-      <c r="B15" s="139">
+      <c r="B15" s="133">
         <v>0.12580723523556264</v>
       </c>
-      <c r="C15" s="139">
+      <c r="C15" s="133">
         <v>9.9188752812334108E-2</v>
       </c>
-      <c r="D15" s="139">
+      <c r="D15" s="133">
         <v>2.6027675979387842E-2</v>
       </c>
-      <c r="E15" s="139">
+      <c r="E15" s="133">
         <v>8.652545543616591E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="138" t="s">
         <v>788</v>
       </c>
-      <c r="B16" s="139">
+      <c r="B16" s="133">
         <v>5.3780389670700174E-2</v>
       </c>
-      <c r="C16" s="139">
+      <c r="C16" s="133">
         <v>4.1780374209965512E-2</v>
       </c>
-      <c r="D16" s="139">
+      <c r="D16" s="133">
         <v>1.8759394516646974E-2</v>
       </c>
-      <c r="E16" s="139">
+      <c r="E16" s="133">
         <v>3.4064761604001764E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="146" t="s">
+      <c r="A17" s="140" t="s">
         <v>841</v>
       </c>
-      <c r="B17" s="141">
+      <c r="B17" s="135">
         <v>48</v>
       </c>
-      <c r="C17" s="141">
+      <c r="C17" s="135">
         <v>13</v>
       </c>
-      <c r="D17" s="141">
+      <c r="D17" s="135">
         <v>28</v>
       </c>
-      <c r="E17" s="141">
+      <c r="E17" s="135">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="34.200000000000003">
-      <c r="B20" s="135" t="s">
+    <row r="20" spans="1:5" ht="34.5">
+      <c r="B20" s="129" t="s">
         <v>840</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="130" t="s">
         <v>839</v>
       </c>
-      <c r="D20" s="136" t="s">
+      <c r="D20" s="130" t="s">
         <v>837</v>
       </c>
-      <c r="E20" s="136" t="s">
+      <c r="E20" s="130" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="143" t="s">
+      <c r="A21" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="131" t="s">
         <v>777</v>
       </c>
-      <c r="C21" s="137" t="s">
+      <c r="C21" s="131" t="s">
         <v>777</v>
       </c>
-      <c r="D21" s="137" t="s">
+      <c r="D21" s="131" t="s">
         <v>777</v>
       </c>
-      <c r="E21" s="137" t="s">
+      <c r="E21" s="131" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="144" t="s">
+      <c r="A22" s="138" t="s">
         <v>789</v>
       </c>
-      <c r="B22" s="138">
+      <c r="B22" s="132">
         <v>156.79166666666666</v>
       </c>
-      <c r="C22" s="138">
+      <c r="C22" s="132">
         <v>151.53846153846155</v>
       </c>
-      <c r="D22" s="138">
+      <c r="D22" s="132">
         <v>231.28571428571431</v>
       </c>
-      <c r="E22" s="138">
+      <c r="E22" s="132">
         <v>175.8918918918919</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="144" t="s">
+      <c r="A23" s="138" t="s">
         <v>790</v>
       </c>
-      <c r="B23" s="138">
+      <c r="B23" s="132">
         <v>154.75</v>
       </c>
-      <c r="C23" s="138">
+      <c r="C23" s="132">
         <v>124.53846153846153</v>
       </c>
-      <c r="D23" s="138">
+      <c r="D23" s="132">
         <v>233.64285714285717</v>
       </c>
-      <c r="E23" s="138">
+      <c r="E23" s="132">
         <v>209.97297297297297</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="146" t="s">
+      <c r="A24" s="140" t="s">
         <v>841</v>
       </c>
-      <c r="B24" s="141">
+      <c r="B24" s="135">
         <v>48</v>
       </c>
-      <c r="C24" s="141">
+      <c r="C24" s="135">
         <v>13</v>
       </c>
-      <c r="D24" s="141">
+      <c r="D24" s="135">
         <v>28</v>
       </c>
-      <c r="E24" s="141">
+      <c r="E24" s="135">
         <v>37</v>
       </c>
     </row>

--- a/archivos/2. Procesamiento de la información/Base Central.xlsx
+++ b/archivos/2. Procesamiento de la información/Base Central.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Universidad del Pacífico\(TRABAJO) Apoyo Sandro Macassi\proyecto1\archivos\2. Procesamiento de la información\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upperu-my.sharepoint.com/personal/ss_sotelog_alum_up_edu_pe/Documents/(TRABAJO) Apoyo Sandro Macassi/proyecto1/archivos/2. Procesamiento de la información/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2B611A-090A-40E0-B058-226143AFC5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{4E2B611A-090A-40E0-B058-226143AFC5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D65A6F6D-442D-40C5-8162-4EE21AE65E0C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{CBE6B108-D0AF-4E21-91D6-1BB5B89965A3}"/>
   </bookViews>
@@ -3547,6 +3547,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3564,18 +3576,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3670,15 +3670,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>33992</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>46877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:colOff>672167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>256428</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3693,8 +3693,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19050" y="1152524"/>
-          <a:ext cx="2924175" cy="971551"/>
+          <a:off x="33992" y="995642"/>
+          <a:ext cx="3036234" cy="941668"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3722,18 +3722,18 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1000"/>
             <a:t>Connected</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1000" baseline="0"/>
             <a:t> Components:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1000"/>
             <a:t>Cada componente es un conjunto de usuarios que interactúan entre ellos por medio del hashtag, pero que no lo hacen con el resto del grupo</a:t>
           </a:r>
         </a:p>
@@ -3744,15 +3744,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>285749</xdr:rowOff>
+      <xdr:colOff>48933</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>323102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>687108</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
+      <xdr:rowOff>291352</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3767,8 +3767,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19050" y="2190749"/>
-          <a:ext cx="2924175" cy="990601"/>
+          <a:off x="48933" y="2003984"/>
+          <a:ext cx="3036234" cy="1066427"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3796,22 +3796,22 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1000"/>
             <a:t>Promedio</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1000" baseline="0"/>
             <a:t> de la distancia geodésica</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1000"/>
             <a:t>:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1000" baseline="0"/>
             <a:t>El promedio del número de interacciones mínimas que un usuario tendrá que realizar para estar en contacto con cualquier otro usuario que también haya utilizado el Hashtag</a:t>
           </a:r>
         </a:p>
@@ -3822,15 +3822,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>26521</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>346448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>664696</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
+      <xdr:rowOff>256615</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3845,8 +3845,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19050" y="3286124"/>
-          <a:ext cx="2924175" cy="1419226"/>
+          <a:off x="26521" y="3125507"/>
+          <a:ext cx="3036234" cy="1374402"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3874,36 +3874,36 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1000"/>
             <a:t>La</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1000" baseline="0"/>
             <a:t> densidad del gráfico</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1000"/>
             <a:t>:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1000"/>
             <a:t>Es</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1000" baseline="0"/>
             <a:t> el número de intereacciones reales que tienen los usuarios que utilizaron el Hashtag en relación al número de interacciones que ocurrirían si todos interactuaran entre sí</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1000" baseline="0"/>
             <a:t>Se trata de una medida de cohesión entre los usuarios. A mayor densidad, mayor calidad de vínculos y mayor flujo de información</a:t>
           </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
+          <a:endParaRPr lang="es-ES" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3964,14 +3964,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1000"/>
             <a:t>In-Degree: </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1000"/>
             <a:t>El número mínimo y máximo de respuestas o menciones que ha recibido un usuario </a:t>
           </a:r>
         </a:p>
@@ -4034,22 +4034,22 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1000"/>
             <a:t>Out-Degree: </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1000"/>
             <a:t>El número mínimo y máximo</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1000" baseline="0"/>
             <a:t> de</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1000"/>
             <a:t> respuestas o menciones que ha realizado un usuario </a:t>
           </a:r>
         </a:p>
@@ -4112,21 +4112,21 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1000"/>
             <a:t>Promedio</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1000" baseline="0"/>
             <a:t> de la centralidad de intermediación:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1000" baseline="0"/>
             <a:t>La capacidad de los usuarios que utilizaron un hashtag para servir como puente entre un usuario que busca información y otro capaz de ofrecerla. En este caso, el promedio alude entre los usuarios de su poder para controlar el flujo de la información</a:t>
           </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
+          <a:endParaRPr lang="es-ES" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4187,24 +4187,24 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1000"/>
             <a:t>Promedio de</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1000" baseline="0"/>
             <a:t> la centralidad de la cercanía:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1000" baseline="0"/>
             <a:t>El nivel de implicación de los usuarios en torno al hashtag. También derivará en el tiempo que le toma a un usuario acceder a la información que se encuentra circulando. A mayor cercanía, mayor nivel de acceso a la información y mayor poder de influencia en la red</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
+          <a:endParaRPr lang="es-ES" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4265,24 +4265,24 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1000"/>
             <a:t>Promedio de</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1000" baseline="0"/>
             <a:t> la centralidad eigenvectorial:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:rPr lang="es-ES" sz="1000" baseline="0"/>
             <a:t>Nivel en el que un usuario interactúa con otros usuarios que tienen buenas conexiones con la red del hashtag. En este sentido, va un paso más allá que en la medida de los grados. </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="es-ES" sz="1000" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4593,7 +4593,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J1:K1048576"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -4785,18 +4785,18 @@
         <v>2</v>
       </c>
       <c r="W3" s="14">
-        <f>(V3/(V3+X3))*100</f>
+        <f t="shared" ref="W3:W34" si="0">(V3/(V3+X3))*100</f>
         <v>20</v>
       </c>
       <c r="X3" s="7">
         <v>8</v>
       </c>
       <c r="Y3" s="14">
-        <f>(X3/(V3+X3))*100</f>
+        <f t="shared" ref="Y3:Y34" si="1">(X3/(V3+X3))*100</f>
         <v>80</v>
       </c>
-      <c r="Z3" s="157">
-        <f>W3-Y3</f>
+      <c r="Z3" s="151">
+        <f t="shared" ref="Z3:Z34" si="2">W3-Y3</f>
         <v>-60</v>
       </c>
       <c r="AA3" s="1">
@@ -4859,18 +4859,18 @@
         <v>5</v>
       </c>
       <c r="W4" s="14">
-        <f>(V4/(V4+X4))*100</f>
+        <f t="shared" si="0"/>
         <v>22.727272727272727</v>
       </c>
       <c r="X4" s="7">
         <v>17</v>
       </c>
       <c r="Y4" s="14">
-        <f>(X4/(V4+X4))*100</f>
+        <f t="shared" si="1"/>
         <v>77.272727272727266</v>
       </c>
-      <c r="Z4" s="157">
-        <f>W4-Y4</f>
+      <c r="Z4" s="151">
+        <f t="shared" si="2"/>
         <v>-54.54545454545454</v>
       </c>
       <c r="AA4" s="1">
@@ -4933,25 +4933,25 @@
         <v>1</v>
       </c>
       <c r="W5" s="14">
-        <f>(V5/(V5+X5))*100</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="X5" s="7">
         <v>3</v>
       </c>
       <c r="Y5" s="14">
-        <f>(X5/(V5+X5))*100</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="Z5" s="157">
-        <f>W5-Y5</f>
+      <c r="Z5" s="151">
+        <f t="shared" si="2"/>
         <v>-50</v>
       </c>
       <c r="AA5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="5:40" ht="43.5">
+    <row r="6" spans="5:40" ht="29">
       <c r="E6" s="7" t="s">
         <v>94</v>
       </c>
@@ -5007,18 +5007,18 @@
         <v>27</v>
       </c>
       <c r="W6" s="14">
-        <f>(V6/(V6+X6))*100</f>
+        <f t="shared" si="0"/>
         <v>25.961538461538463</v>
       </c>
       <c r="X6" s="7">
         <v>77</v>
       </c>
       <c r="Y6" s="14">
-        <f>(X6/(V6+X6))*100</f>
+        <f t="shared" si="1"/>
         <v>74.038461538461547</v>
       </c>
-      <c r="Z6" s="157">
-        <f>W6-Y6</f>
+      <c r="Z6" s="151">
+        <f t="shared" si="2"/>
         <v>-48.07692307692308</v>
       </c>
       <c r="AA6" s="1">
@@ -5081,18 +5081,18 @@
         <v>94</v>
       </c>
       <c r="W7" s="14">
-        <f>(V7/(V7+X7))*100</f>
+        <f t="shared" si="0"/>
         <v>31.229235880398669</v>
       </c>
       <c r="X7" s="7">
         <v>207</v>
       </c>
       <c r="Y7" s="14">
-        <f>(X7/(V7+X7))*100</f>
+        <f t="shared" si="1"/>
         <v>68.770764119601324</v>
       </c>
-      <c r="Z7" s="157">
-        <f>W7-Y7</f>
+      <c r="Z7" s="151">
+        <f t="shared" si="2"/>
         <v>-37.541528239202655</v>
       </c>
       <c r="AA7" s="1">
@@ -5155,18 +5155,18 @@
         <v>60</v>
       </c>
       <c r="W8" s="14">
-        <f>(V8/(V8+X8))*100</f>
+        <f t="shared" si="0"/>
         <v>31.578947368421051</v>
       </c>
       <c r="X8" s="7">
         <v>130</v>
       </c>
       <c r="Y8" s="14">
-        <f>(X8/(V8+X8))*100</f>
+        <f t="shared" si="1"/>
         <v>68.421052631578945</v>
       </c>
-      <c r="Z8" s="157">
-        <f>W8-Y8</f>
+      <c r="Z8" s="151">
+        <f t="shared" si="2"/>
         <v>-36.84210526315789</v>
       </c>
       <c r="AA8" s="1">
@@ -5229,18 +5229,18 @@
         <v>67</v>
       </c>
       <c r="W9" s="14">
-        <f>(V9/(V9+X9))*100</f>
+        <f t="shared" si="0"/>
         <v>31.753554502369667</v>
       </c>
       <c r="X9" s="7">
         <v>144</v>
       </c>
       <c r="Y9" s="14">
-        <f>(X9/(V9+X9))*100</f>
+        <f t="shared" si="1"/>
         <v>68.246445497630333</v>
       </c>
-      <c r="Z9" s="157">
-        <f>W9-Y9</f>
+      <c r="Z9" s="151">
+        <f t="shared" si="2"/>
         <v>-36.492890995260666</v>
       </c>
       <c r="AA9" s="1">
@@ -5303,18 +5303,18 @@
         <v>44</v>
       </c>
       <c r="W10" s="14">
-        <f>(V10/(V10+X10))*100</f>
+        <f t="shared" si="0"/>
         <v>31.884057971014489</v>
       </c>
       <c r="X10" s="7">
         <v>94</v>
       </c>
       <c r="Y10" s="14">
-        <f>(X10/(V10+X10))*100</f>
+        <f t="shared" si="1"/>
         <v>68.115942028985515</v>
       </c>
-      <c r="Z10" s="157">
-        <f>W10-Y10</f>
+      <c r="Z10" s="151">
+        <f t="shared" si="2"/>
         <v>-36.23188405797103</v>
       </c>
       <c r="AA10" s="1">
@@ -5377,18 +5377,18 @@
         <v>51</v>
       </c>
       <c r="W11" s="14">
-        <f>(V11/(V11+X11))*100</f>
+        <f t="shared" si="0"/>
         <v>33.333333333333329</v>
       </c>
       <c r="X11" s="7">
         <v>102</v>
       </c>
       <c r="Y11" s="14">
-        <f>(X11/(V11+X11))*100</f>
+        <f t="shared" si="1"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z11" s="157">
-        <f>W11-Y11</f>
+      <c r="Z11" s="151">
+        <f t="shared" si="2"/>
         <v>-33.333333333333329</v>
       </c>
       <c r="AA11" s="1">
@@ -5451,18 +5451,18 @@
         <v>128</v>
       </c>
       <c r="W12" s="14">
-        <f>(V12/(V12+X12))*100</f>
+        <f t="shared" si="0"/>
         <v>34.042553191489361</v>
       </c>
       <c r="X12" s="7">
         <v>248</v>
       </c>
       <c r="Y12" s="14">
-        <f>(X12/(V12+X12))*100</f>
+        <f t="shared" si="1"/>
         <v>65.957446808510639</v>
       </c>
-      <c r="Z12" s="157">
-        <f>W12-Y12</f>
+      <c r="Z12" s="151">
+        <f t="shared" si="2"/>
         <v>-31.914893617021278</v>
       </c>
       <c r="AA12" s="1">
@@ -5525,18 +5525,18 @@
         <v>182</v>
       </c>
       <c r="W13" s="14">
-        <f>(V13/(V13+X13))*100</f>
+        <f t="shared" si="0"/>
         <v>34.27495291902072</v>
       </c>
       <c r="X13" s="7">
         <v>349</v>
       </c>
       <c r="Y13" s="14">
-        <f>(X13/(V13+X13))*100</f>
+        <f t="shared" si="1"/>
         <v>65.72504708097928</v>
       </c>
-      <c r="Z13" s="157">
-        <f>W13-Y13</f>
+      <c r="Z13" s="151">
+        <f t="shared" si="2"/>
         <v>-31.45009416195856</v>
       </c>
       <c r="AA13" s="1">
@@ -5599,18 +5599,18 @@
         <v>228</v>
       </c>
       <c r="W14" s="14">
-        <f>(V14/(V14+X14))*100</f>
+        <f t="shared" si="0"/>
         <v>35.185185185185183</v>
       </c>
       <c r="X14" s="7">
         <v>420</v>
       </c>
       <c r="Y14" s="14">
-        <f>(X14/(V14+X14))*100</f>
+        <f t="shared" si="1"/>
         <v>64.81481481481481</v>
       </c>
-      <c r="Z14" s="157">
-        <f>W14-Y14</f>
+      <c r="Z14" s="151">
+        <f t="shared" si="2"/>
         <v>-29.629629629629626</v>
       </c>
       <c r="AA14" s="1">
@@ -5673,18 +5673,18 @@
         <v>121</v>
       </c>
       <c r="W15" s="14">
-        <f>(V15/(V15+X15))*100</f>
+        <f t="shared" si="0"/>
         <v>35.380116959064331</v>
       </c>
       <c r="X15" s="7">
         <v>221</v>
       </c>
       <c r="Y15" s="14">
-        <f>(X15/(V15+X15))*100</f>
+        <f t="shared" si="1"/>
         <v>64.619883040935676</v>
       </c>
-      <c r="Z15" s="157">
-        <f>W15-Y15</f>
+      <c r="Z15" s="151">
+        <f t="shared" si="2"/>
         <v>-29.239766081871345</v>
       </c>
       <c r="AA15" s="1">
@@ -5747,18 +5747,18 @@
         <v>134</v>
       </c>
       <c r="W16" s="14">
-        <f>(V16/(V16+X16))*100</f>
+        <f t="shared" si="0"/>
         <v>35.449735449735449</v>
       </c>
       <c r="X16" s="7">
         <v>244</v>
       </c>
       <c r="Y16" s="14">
-        <f>(X16/(V16+X16))*100</f>
+        <f t="shared" si="1"/>
         <v>64.550264550264544</v>
       </c>
-      <c r="Z16" s="157">
-        <f>W16-Y16</f>
+      <c r="Z16" s="151">
+        <f t="shared" si="2"/>
         <v>-29.100529100529094</v>
       </c>
       <c r="AA16" s="1">
@@ -5821,18 +5821,18 @@
         <v>176</v>
       </c>
       <c r="W17" s="14">
-        <f>(V17/(V17+X17))*100</f>
+        <f t="shared" si="0"/>
         <v>36.897274633123686</v>
       </c>
       <c r="X17" s="7">
         <v>301</v>
       </c>
       <c r="Y17" s="14">
-        <f>(X17/(V17+X17))*100</f>
+        <f t="shared" si="1"/>
         <v>63.102725366876314</v>
       </c>
-      <c r="Z17" s="157">
-        <f>W17-Y17</f>
+      <c r="Z17" s="151">
+        <f t="shared" si="2"/>
         <v>-26.205450733752627</v>
       </c>
       <c r="AA17" s="1">
@@ -5895,18 +5895,18 @@
         <v>182</v>
       </c>
       <c r="W18" s="14">
-        <f>(V18/(V18+X18))*100</f>
+        <f t="shared" si="0"/>
         <v>37.067209775967413</v>
       </c>
       <c r="X18" s="7">
         <v>309</v>
       </c>
       <c r="Y18" s="14">
-        <f>(X18/(V18+X18))*100</f>
+        <f t="shared" si="1"/>
         <v>62.932790224032587</v>
       </c>
-      <c r="Z18" s="157">
-        <f>W18-Y18</f>
+      <c r="Z18" s="151">
+        <f t="shared" si="2"/>
         <v>-25.865580448065174</v>
       </c>
       <c r="AA18" s="1">
@@ -5969,25 +5969,25 @@
         <v>3</v>
       </c>
       <c r="W19" s="14">
-        <f>(V19/(V19+X19))*100</f>
+        <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
       <c r="X19" s="7">
         <v>5</v>
       </c>
       <c r="Y19" s="14">
-        <f>(X19/(V19+X19))*100</f>
+        <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="Z19" s="157">
-        <f>W19-Y19</f>
+      <c r="Z19" s="151">
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="AA19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="5:27" ht="43.5">
+    <row r="20" spans="5:27" ht="29">
       <c r="E20" s="7" t="s">
         <v>140</v>
       </c>
@@ -6043,18 +6043,18 @@
         <v>89</v>
       </c>
       <c r="W20" s="14">
-        <f>(V20/(V20+X20))*100</f>
+        <f t="shared" si="0"/>
         <v>37.711864406779661</v>
       </c>
       <c r="X20" s="7">
         <v>147</v>
       </c>
       <c r="Y20" s="14">
-        <f>(X20/(V20+X20))*100</f>
+        <f t="shared" si="1"/>
         <v>62.288135593220339</v>
       </c>
-      <c r="Z20" s="157">
-        <f>W20-Y20</f>
+      <c r="Z20" s="151">
+        <f t="shared" si="2"/>
         <v>-24.576271186440678</v>
       </c>
       <c r="AA20" s="1">
@@ -6117,18 +6117,18 @@
         <v>10</v>
       </c>
       <c r="W21" s="14">
-        <f>(V21/(V21+X21))*100</f>
+        <f t="shared" si="0"/>
         <v>38.461538461538467</v>
       </c>
       <c r="X21" s="7">
         <v>16</v>
       </c>
       <c r="Y21" s="14">
-        <f>(X21/(V21+X21))*100</f>
+        <f t="shared" si="1"/>
         <v>61.53846153846154</v>
       </c>
-      <c r="Z21" s="157">
-        <f>W21-Y21</f>
+      <c r="Z21" s="151">
+        <f t="shared" si="2"/>
         <v>-23.076923076923073</v>
       </c>
       <c r="AA21" s="1">
@@ -6191,18 +6191,18 @@
         <v>143</v>
       </c>
       <c r="W22" s="14">
-        <f>(V22/(V22+X22))*100</f>
+        <f t="shared" si="0"/>
         <v>40.168539325842694</v>
       </c>
       <c r="X22" s="7">
         <v>213</v>
       </c>
       <c r="Y22" s="14">
-        <f>(X22/(V22+X22))*100</f>
+        <f t="shared" si="1"/>
         <v>59.831460674157299</v>
       </c>
-      <c r="Z22" s="157">
-        <f>W22-Y22</f>
+      <c r="Z22" s="151">
+        <f t="shared" si="2"/>
         <v>-19.662921348314605</v>
       </c>
       <c r="AA22" s="1">
@@ -6265,18 +6265,18 @@
         <v>175</v>
       </c>
       <c r="W23" s="14">
-        <f>(V23/(V23+X23))*100</f>
+        <f t="shared" si="0"/>
         <v>40.322580645161288</v>
       </c>
       <c r="X23" s="7">
         <v>259</v>
       </c>
       <c r="Y23" s="14">
-        <f>(X23/(V23+X23))*100</f>
+        <f t="shared" si="1"/>
         <v>59.677419354838712</v>
       </c>
-      <c r="Z23" s="157">
-        <f>W23-Y23</f>
+      <c r="Z23" s="151">
+        <f t="shared" si="2"/>
         <v>-19.354838709677423</v>
       </c>
       <c r="AA23" s="1">
@@ -6339,18 +6339,18 @@
         <v>201</v>
       </c>
       <c r="W24" s="14">
-        <f>(V24/(V24+X24))*100</f>
+        <f t="shared" si="0"/>
         <v>40.524193548387096</v>
       </c>
       <c r="X24" s="7">
         <v>295</v>
       </c>
       <c r="Y24" s="14">
-        <f>(X24/(V24+X24))*100</f>
+        <f t="shared" si="1"/>
         <v>59.475806451612897</v>
       </c>
-      <c r="Z24" s="157">
-        <f>W24-Y24</f>
+      <c r="Z24" s="151">
+        <f t="shared" si="2"/>
         <v>-18.951612903225801</v>
       </c>
       <c r="AA24" s="1">
@@ -6413,18 +6413,18 @@
         <v>77</v>
       </c>
       <c r="W25" s="14">
-        <f>(V25/(V25+X25))*100</f>
+        <f t="shared" si="0"/>
         <v>40.526315789473685</v>
       </c>
       <c r="X25" s="7">
         <v>113</v>
       </c>
       <c r="Y25" s="14">
-        <f>(X25/(V25+X25))*100</f>
+        <f t="shared" si="1"/>
         <v>59.473684210526315</v>
       </c>
-      <c r="Z25" s="157">
-        <f>W25-Y25</f>
+      <c r="Z25" s="151">
+        <f t="shared" si="2"/>
         <v>-18.94736842105263</v>
       </c>
       <c r="AA25" s="1">
@@ -6487,18 +6487,18 @@
         <v>135</v>
       </c>
       <c r="W26" s="14">
-        <f>(V26/(V26+X26))*100</f>
+        <f t="shared" si="0"/>
         <v>40.54054054054054</v>
       </c>
       <c r="X26" s="7">
         <v>198</v>
       </c>
       <c r="Y26" s="14">
-        <f>(X26/(V26+X26))*100</f>
+        <f t="shared" si="1"/>
         <v>59.45945945945946</v>
       </c>
-      <c r="Z26" s="157">
-        <f>W26-Y26</f>
+      <c r="Z26" s="151">
+        <f t="shared" si="2"/>
         <v>-18.918918918918919</v>
       </c>
       <c r="AA26" s="1">
@@ -6561,18 +6561,18 @@
         <v>312</v>
       </c>
       <c r="W27" s="14">
-        <f>(V27/(V27+X27))*100</f>
+        <f t="shared" si="0"/>
         <v>40.677966101694921</v>
       </c>
       <c r="X27" s="7">
         <v>455</v>
       </c>
       <c r="Y27" s="14">
-        <f>(X27/(V27+X27))*100</f>
+        <f t="shared" si="1"/>
         <v>59.322033898305079</v>
       </c>
-      <c r="Z27" s="157">
-        <f>W27-Y27</f>
+      <c r="Z27" s="151">
+        <f t="shared" si="2"/>
         <v>-18.644067796610159</v>
       </c>
       <c r="AA27" s="1">
@@ -6635,18 +6635,18 @@
         <v>184</v>
       </c>
       <c r="W28" s="14">
-        <f>(V28/(V28+X28))*100</f>
+        <f t="shared" si="0"/>
         <v>40.888888888888893</v>
       </c>
       <c r="X28" s="7">
         <v>266</v>
       </c>
       <c r="Y28" s="14">
-        <f>(X28/(V28+X28))*100</f>
+        <f t="shared" si="1"/>
         <v>59.111111111111114</v>
       </c>
-      <c r="Z28" s="157">
-        <f>W28-Y28</f>
+      <c r="Z28" s="151">
+        <f t="shared" si="2"/>
         <v>-18.222222222222221</v>
       </c>
       <c r="AA28" s="1">
@@ -6709,18 +6709,18 @@
         <v>78</v>
       </c>
       <c r="W29" s="14">
-        <f>(V29/(V29+X29))*100</f>
+        <f t="shared" si="0"/>
         <v>41.269841269841265</v>
       </c>
       <c r="X29" s="7">
         <v>111</v>
       </c>
       <c r="Y29" s="14">
-        <f>(X29/(V29+X29))*100</f>
+        <f t="shared" si="1"/>
         <v>58.730158730158735</v>
       </c>
-      <c r="Z29" s="157">
-        <f>W29-Y29</f>
+      <c r="Z29" s="151">
+        <f t="shared" si="2"/>
         <v>-17.460317460317469</v>
       </c>
       <c r="AA29" s="1">
@@ -6783,18 +6783,18 @@
         <v>85</v>
       </c>
       <c r="W30" s="14">
-        <f>(V30/(V30+X30))*100</f>
+        <f t="shared" si="0"/>
         <v>42.288557213930353</v>
       </c>
       <c r="X30" s="7">
         <v>116</v>
       </c>
       <c r="Y30" s="14">
-        <f>(X30/(V30+X30))*100</f>
+        <f t="shared" si="1"/>
         <v>57.711442786069654</v>
       </c>
-      <c r="Z30" s="157">
-        <f>W30-Y30</f>
+      <c r="Z30" s="151">
+        <f t="shared" si="2"/>
         <v>-15.4228855721393</v>
       </c>
       <c r="AA30" s="1">
@@ -6857,18 +6857,18 @@
         <v>166</v>
       </c>
       <c r="W31" s="14">
-        <f>(V31/(V31+X31))*100</f>
+        <f t="shared" si="0"/>
         <v>43.005181347150256</v>
       </c>
       <c r="X31" s="7">
         <v>220</v>
       </c>
       <c r="Y31" s="14">
-        <f>(X31/(V31+X31))*100</f>
+        <f t="shared" si="1"/>
         <v>56.994818652849744</v>
       </c>
-      <c r="Z31" s="157">
-        <f>W31-Y31</f>
+      <c r="Z31" s="151">
+        <f t="shared" si="2"/>
         <v>-13.989637305699489</v>
       </c>
       <c r="AA31" s="1">
@@ -6931,18 +6931,18 @@
         <v>263</v>
       </c>
       <c r="W32" s="14">
-        <f>(V32/(V32+X32))*100</f>
+        <f t="shared" si="0"/>
         <v>43.114754098360656</v>
       </c>
       <c r="X32" s="7">
         <v>347</v>
       </c>
       <c r="Y32" s="14">
-        <f>(X32/(V32+X32))*100</f>
+        <f t="shared" si="1"/>
         <v>56.885245901639351</v>
       </c>
-      <c r="Z32" s="157">
-        <f>W32-Y32</f>
+      <c r="Z32" s="151">
+        <f t="shared" si="2"/>
         <v>-13.770491803278695</v>
       </c>
       <c r="AA32" s="1">
@@ -7005,18 +7005,18 @@
         <v>257</v>
       </c>
       <c r="W33" s="14">
-        <f>(V33/(V33+X33))*100</f>
+        <f t="shared" si="0"/>
         <v>43.485617597292723</v>
       </c>
       <c r="X33" s="7">
         <v>334</v>
       </c>
       <c r="Y33" s="14">
-        <f>(X33/(V33+X33))*100</f>
+        <f t="shared" si="1"/>
         <v>56.514382402707277</v>
       </c>
-      <c r="Z33" s="157">
-        <f>W33-Y33</f>
+      <c r="Z33" s="151">
+        <f t="shared" si="2"/>
         <v>-13.028764805414554</v>
       </c>
       <c r="AA33" s="1">
@@ -7079,18 +7079,18 @@
         <v>229</v>
       </c>
       <c r="W34" s="14">
-        <f>(V34/(V34+X34))*100</f>
+        <f t="shared" si="0"/>
         <v>43.536121673003805</v>
       </c>
       <c r="X34" s="7">
         <v>297</v>
       </c>
       <c r="Y34" s="14">
-        <f>(X34/(V34+X34))*100</f>
+        <f t="shared" si="1"/>
         <v>56.463878326996195</v>
       </c>
-      <c r="Z34" s="157">
-        <f>W34-Y34</f>
+      <c r="Z34" s="151">
+        <f t="shared" si="2"/>
         <v>-12.92775665399239</v>
       </c>
       <c r="AA34" s="1">
@@ -7153,18 +7153,18 @@
         <v>129</v>
       </c>
       <c r="W35" s="14">
-        <f>(V35/(V35+X35))*100</f>
+        <f t="shared" ref="W35:W66" si="3">(V35/(V35+X35))*100</f>
         <v>43.728813559322035</v>
       </c>
       <c r="X35" s="7">
         <v>166</v>
       </c>
       <c r="Y35" s="14">
-        <f>(X35/(V35+X35))*100</f>
+        <f t="shared" ref="Y35:Y66" si="4">(X35/(V35+X35))*100</f>
         <v>56.271186440677965</v>
       </c>
-      <c r="Z35" s="157">
-        <f>W35-Y35</f>
+      <c r="Z35" s="151">
+        <f t="shared" ref="Z35:Z66" si="5">W35-Y35</f>
         <v>-12.542372881355931</v>
       </c>
       <c r="AA35" s="1">
@@ -7227,18 +7227,18 @@
         <v>51</v>
       </c>
       <c r="W36" s="14">
-        <f>(V36/(V36+X36))*100</f>
+        <f t="shared" si="3"/>
         <v>43.96551724137931</v>
       </c>
       <c r="X36" s="7">
         <v>65</v>
       </c>
       <c r="Y36" s="14">
-        <f>(X36/(V36+X36))*100</f>
+        <f t="shared" si="4"/>
         <v>56.034482758620683</v>
       </c>
-      <c r="Z36" s="157">
-        <f>W36-Y36</f>
+      <c r="Z36" s="151">
+        <f t="shared" si="5"/>
         <v>-12.068965517241374</v>
       </c>
       <c r="AA36" s="1">
@@ -7301,18 +7301,18 @@
         <v>55</v>
       </c>
       <c r="W37" s="14">
-        <f>(V37/(V37+X37))*100</f>
+        <f t="shared" si="3"/>
         <v>44.354838709677416</v>
       </c>
       <c r="X37" s="7">
         <v>69</v>
       </c>
       <c r="Y37" s="14">
-        <f>(X37/(V37+X37))*100</f>
+        <f t="shared" si="4"/>
         <v>55.645161290322577</v>
       </c>
-      <c r="Z37" s="157">
-        <f>W37-Y37</f>
+      <c r="Z37" s="151">
+        <f t="shared" si="5"/>
         <v>-11.29032258064516</v>
       </c>
       <c r="AA37" s="1">
@@ -7375,18 +7375,18 @@
         <v>456</v>
       </c>
       <c r="W38" s="14">
-        <f>(V38/(V38+X38))*100</f>
+        <f t="shared" si="3"/>
         <v>44.749754661432775</v>
       </c>
       <c r="X38" s="7">
         <v>563</v>
       </c>
       <c r="Y38" s="14">
-        <f>(X38/(V38+X38))*100</f>
+        <f t="shared" si="4"/>
         <v>55.250245338567225</v>
       </c>
-      <c r="Z38" s="157">
-        <f>W38-Y38</f>
+      <c r="Z38" s="151">
+        <f t="shared" si="5"/>
         <v>-10.500490677134451</v>
       </c>
       <c r="AA38" s="1">
@@ -7449,18 +7449,18 @@
         <v>184</v>
       </c>
       <c r="W39" s="14">
-        <f>(V39/(V39+X39))*100</f>
+        <f t="shared" si="3"/>
         <v>44.878048780487809</v>
       </c>
       <c r="X39" s="7">
         <v>226</v>
       </c>
       <c r="Y39" s="14">
-        <f>(X39/(V39+X39))*100</f>
+        <f t="shared" si="4"/>
         <v>55.121951219512198</v>
       </c>
-      <c r="Z39" s="157">
-        <f>W39-Y39</f>
+      <c r="Z39" s="151">
+        <f t="shared" si="5"/>
         <v>-10.243902439024389</v>
       </c>
       <c r="AA39" s="1">
@@ -7523,18 +7523,18 @@
         <v>90</v>
       </c>
       <c r="W40" s="14">
-        <f>(V40/(V40+X40))*100</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="X40" s="7">
         <v>110</v>
       </c>
       <c r="Y40" s="14">
-        <f>(X40/(V40+X40))*100</f>
+        <f t="shared" si="4"/>
         <v>55.000000000000007</v>
       </c>
-      <c r="Z40" s="157">
-        <f>W40-Y40</f>
+      <c r="Z40" s="151">
+        <f t="shared" si="5"/>
         <v>-10.000000000000007</v>
       </c>
       <c r="AA40" s="1">
@@ -7597,18 +7597,18 @@
         <v>368</v>
       </c>
       <c r="W41" s="14">
-        <f>(V41/(V41+X41))*100</f>
+        <f t="shared" si="3"/>
         <v>45.432098765432102</v>
       </c>
       <c r="X41" s="7">
         <v>442</v>
       </c>
       <c r="Y41" s="14">
-        <f>(X41/(V41+X41))*100</f>
+        <f t="shared" si="4"/>
         <v>54.567901234567906</v>
       </c>
-      <c r="Z41" s="157">
-        <f>W41-Y41</f>
+      <c r="Z41" s="151">
+        <f t="shared" si="5"/>
         <v>-9.135802469135804</v>
       </c>
       <c r="AA41" s="1">
@@ -7671,18 +7671,18 @@
         <v>30</v>
       </c>
       <c r="W42" s="14">
-        <f>(V42/(V42+X42))*100</f>
+        <f t="shared" si="3"/>
         <v>45.454545454545453</v>
       </c>
       <c r="X42" s="7">
         <v>36</v>
       </c>
       <c r="Y42" s="14">
-        <f>(X42/(V42+X42))*100</f>
+        <f t="shared" si="4"/>
         <v>54.54545454545454</v>
       </c>
-      <c r="Z42" s="157">
-        <f>W42-Y42</f>
+      <c r="Z42" s="151">
+        <f t="shared" si="5"/>
         <v>-9.0909090909090864</v>
       </c>
       <c r="AA42" s="1">
@@ -7745,18 +7745,18 @@
         <v>281</v>
       </c>
       <c r="W43" s="14">
-        <f>(V43/(V43+X43))*100</f>
+        <f t="shared" si="3"/>
         <v>45.469255663430417</v>
       </c>
       <c r="X43" s="7">
         <v>337</v>
       </c>
       <c r="Y43" s="14">
-        <f>(X43/(V43+X43))*100</f>
+        <f t="shared" si="4"/>
         <v>54.530744336569583</v>
       </c>
-      <c r="Z43" s="157">
-        <f>W43-Y43</f>
+      <c r="Z43" s="151">
+        <f t="shared" si="5"/>
         <v>-9.0614886731391664</v>
       </c>
       <c r="AA43" s="1">
@@ -7819,18 +7819,18 @@
         <v>245</v>
       </c>
       <c r="W44" s="14">
-        <f>(V44/(V44+X44))*100</f>
+        <f t="shared" si="3"/>
         <v>45.623836126629428</v>
       </c>
       <c r="X44" s="7">
         <v>292</v>
       </c>
       <c r="Y44" s="14">
-        <f>(X44/(V44+X44))*100</f>
+        <f t="shared" si="4"/>
         <v>54.376163873370572</v>
       </c>
-      <c r="Z44" s="157">
-        <f>W44-Y44</f>
+      <c r="Z44" s="151">
+        <f t="shared" si="5"/>
         <v>-8.7523277467411447</v>
       </c>
       <c r="AA44" s="1">
@@ -7906,18 +7906,18 @@
         <v>153</v>
       </c>
       <c r="W45" s="14">
-        <f>(V45/(V45+X45))*100</f>
+        <f t="shared" si="3"/>
         <v>45.671641791044777</v>
       </c>
       <c r="X45" s="7">
         <v>182</v>
       </c>
       <c r="Y45" s="14">
-        <f>(X45/(V45+X45))*100</f>
+        <f t="shared" si="4"/>
         <v>54.328358208955216</v>
       </c>
-      <c r="Z45" s="157">
-        <f>W45-Y45</f>
+      <c r="Z45" s="151">
+        <f t="shared" si="5"/>
         <v>-8.6567164179104381</v>
       </c>
       <c r="AA45" s="1">
@@ -7982,18 +7982,18 @@
         <v>99</v>
       </c>
       <c r="W46" s="14">
-        <f>(V46/(V46+X46))*100</f>
+        <f t="shared" si="3"/>
         <v>45.833333333333329</v>
       </c>
       <c r="X46" s="7">
         <v>117</v>
       </c>
       <c r="Y46" s="14">
-        <f>(X46/(V46+X46))*100</f>
+        <f t="shared" si="4"/>
         <v>54.166666666666664</v>
       </c>
-      <c r="Z46" s="157">
-        <f>W46-Y46</f>
+      <c r="Z46" s="151">
+        <f t="shared" si="5"/>
         <v>-8.3333333333333357</v>
       </c>
       <c r="AA46" s="1">
@@ -8058,18 +8058,18 @@
         <v>152</v>
       </c>
       <c r="W47" s="14">
-        <f>(V47/(V47+X47))*100</f>
+        <f t="shared" si="3"/>
         <v>45.9214501510574</v>
       </c>
       <c r="X47" s="7">
         <v>179</v>
       </c>
       <c r="Y47" s="14">
-        <f>(X47/(V47+X47))*100</f>
+        <f t="shared" si="4"/>
         <v>54.0785498489426</v>
       </c>
-      <c r="Z47" s="157">
-        <f>W47-Y47</f>
+      <c r="Z47" s="151">
+        <f t="shared" si="5"/>
         <v>-8.1570996978852008</v>
       </c>
       <c r="AA47" s="1">
@@ -8134,18 +8134,18 @@
         <v>304</v>
       </c>
       <c r="W48" s="14">
-        <f>(V48/(V48+X48))*100</f>
+        <f t="shared" si="3"/>
         <v>46.200607902735563</v>
       </c>
       <c r="X48" s="7">
         <v>354</v>
       </c>
       <c r="Y48" s="14">
-        <f>(X48/(V48+X48))*100</f>
+        <f t="shared" si="4"/>
         <v>53.799392097264445</v>
       </c>
-      <c r="Z48" s="157">
-        <f>W48-Y48</f>
+      <c r="Z48" s="151">
+        <f t="shared" si="5"/>
         <v>-7.5987841945288821</v>
       </c>
       <c r="AA48" s="1">
@@ -8210,18 +8210,18 @@
         <v>62</v>
       </c>
       <c r="W49" s="14">
-        <f>(V49/(V49+X49))*100</f>
+        <f t="shared" si="3"/>
         <v>46.268656716417908</v>
       </c>
       <c r="X49" s="7">
         <v>72</v>
       </c>
       <c r="Y49" s="14">
-        <f>(X49/(V49+X49))*100</f>
+        <f t="shared" si="4"/>
         <v>53.731343283582092</v>
       </c>
-      <c r="Z49" s="157">
-        <f>W49-Y49</f>
+      <c r="Z49" s="151">
+        <f t="shared" si="5"/>
         <v>-7.4626865671641838</v>
       </c>
       <c r="AA49" s="1">
@@ -8286,18 +8286,18 @@
         <v>257</v>
       </c>
       <c r="W50" s="14">
-        <f>(V50/(V50+X50))*100</f>
+        <f t="shared" si="3"/>
         <v>46.389891696750901</v>
       </c>
       <c r="X50" s="7">
         <v>297</v>
       </c>
       <c r="Y50" s="14">
-        <f>(X50/(V50+X50))*100</f>
+        <f t="shared" si="4"/>
         <v>53.610108303249092</v>
       </c>
-      <c r="Z50" s="157">
-        <f>W50-Y50</f>
+      <c r="Z50" s="151">
+        <f t="shared" si="5"/>
         <v>-7.220216606498191</v>
       </c>
       <c r="AA50" s="1">
@@ -8362,18 +8362,18 @@
         <v>233</v>
       </c>
       <c r="W51" s="14">
-        <f>(V51/(V51+X51))*100</f>
+        <f t="shared" si="3"/>
         <v>46.506986027944116</v>
       </c>
       <c r="X51" s="7">
         <v>268</v>
       </c>
       <c r="Y51" s="14">
-        <f>(X51/(V51+X51))*100</f>
+        <f t="shared" si="4"/>
         <v>53.493013972055891</v>
       </c>
-      <c r="Z51" s="157">
-        <f>W51-Y51</f>
+      <c r="Z51" s="151">
+        <f t="shared" si="5"/>
         <v>-6.9860279441117754</v>
       </c>
       <c r="AA51" s="1">
@@ -8438,18 +8438,18 @@
         <v>47</v>
       </c>
       <c r="W52" s="14">
-        <f>(V52/(V52+X52))*100</f>
+        <f t="shared" si="3"/>
         <v>46.534653465346537</v>
       </c>
       <c r="X52" s="7">
         <v>54</v>
       </c>
       <c r="Y52" s="14">
-        <f>(X52/(V52+X52))*100</f>
+        <f t="shared" si="4"/>
         <v>53.46534653465347</v>
       </c>
-      <c r="Z52" s="157">
-        <f>W52-Y52</f>
+      <c r="Z52" s="151">
+        <f t="shared" si="5"/>
         <v>-6.9306930693069333</v>
       </c>
       <c r="AA52" s="1">
@@ -8514,18 +8514,18 @@
         <v>23</v>
       </c>
       <c r="W53" s="14">
-        <f>(V53/(V53+X53))*100</f>
+        <f t="shared" si="3"/>
         <v>46.938775510204081</v>
       </c>
       <c r="X53" s="7">
         <v>26</v>
       </c>
       <c r="Y53" s="14">
-        <f>(X53/(V53+X53))*100</f>
+        <f t="shared" si="4"/>
         <v>53.061224489795919</v>
       </c>
-      <c r="Z53" s="157">
-        <f>W53-Y53</f>
+      <c r="Z53" s="151">
+        <f t="shared" si="5"/>
         <v>-6.1224489795918373</v>
       </c>
       <c r="AA53" s="1">
@@ -8590,18 +8590,18 @@
         <v>62</v>
       </c>
       <c r="W54" s="14">
-        <f>(V54/(V54+X54))*100</f>
+        <f t="shared" si="3"/>
         <v>46.969696969696969</v>
       </c>
       <c r="X54" s="7">
         <v>70</v>
       </c>
       <c r="Y54" s="14">
-        <f>(X54/(V54+X54))*100</f>
+        <f t="shared" si="4"/>
         <v>53.030303030303031</v>
       </c>
-      <c r="Z54" s="157">
-        <f>W54-Y54</f>
+      <c r="Z54" s="151">
+        <f t="shared" si="5"/>
         <v>-6.0606060606060623</v>
       </c>
       <c r="AA54" s="1">
@@ -8666,18 +8666,18 @@
         <v>195</v>
       </c>
       <c r="W55" s="14">
-        <f>(V55/(V55+X55))*100</f>
+        <f t="shared" si="3"/>
         <v>46.987951807228917</v>
       </c>
       <c r="X55" s="7">
         <v>220</v>
       </c>
       <c r="Y55" s="14">
-        <f>(X55/(V55+X55))*100</f>
+        <f t="shared" si="4"/>
         <v>53.01204819277109</v>
       </c>
-      <c r="Z55" s="157">
-        <f>W55-Y55</f>
+      <c r="Z55" s="151">
+        <f t="shared" si="5"/>
         <v>-6.0240963855421725</v>
       </c>
       <c r="AA55" s="1">
@@ -8742,18 +8742,18 @@
         <v>289</v>
       </c>
       <c r="W56" s="14">
-        <f>(V56/(V56+X56))*100</f>
+        <f t="shared" si="3"/>
         <v>47.145187601957581</v>
       </c>
       <c r="X56" s="7">
         <v>324</v>
       </c>
       <c r="Y56" s="14">
-        <f>(X56/(V56+X56))*100</f>
+        <f t="shared" si="4"/>
         <v>52.854812398042419</v>
       </c>
-      <c r="Z56" s="157">
-        <f>W56-Y56</f>
+      <c r="Z56" s="151">
+        <f t="shared" si="5"/>
         <v>-5.7096247960848387</v>
       </c>
       <c r="AA56" s="1">
@@ -8762,7 +8762,7 @@
       <c r="AB56" s="21"/>
       <c r="AC56" s="21"/>
     </row>
-    <row r="57" spans="5:29" ht="43.5">
+    <row r="57" spans="5:29" ht="29">
       <c r="E57" s="7" t="s">
         <v>26</v>
       </c>
@@ -8818,18 +8818,18 @@
         <v>112</v>
       </c>
       <c r="W57" s="14">
-        <f>(V57/(V57+X57))*100</f>
+        <f t="shared" si="3"/>
         <v>47.257383966244724</v>
       </c>
       <c r="X57" s="7">
         <v>125</v>
       </c>
       <c r="Y57" s="14">
-        <f>(X57/(V57+X57))*100</f>
+        <f t="shared" si="4"/>
         <v>52.742616033755276</v>
       </c>
-      <c r="Z57" s="157">
-        <f>W57-Y57</f>
+      <c r="Z57" s="151">
+        <f t="shared" si="5"/>
         <v>-5.4852320675105517</v>
       </c>
       <c r="AA57" s="1">
@@ -8838,7 +8838,7 @@
       <c r="AB57" s="21"/>
       <c r="AC57" s="21"/>
     </row>
-    <row r="58" spans="5:29" ht="43.5">
+    <row r="58" spans="5:29" ht="29">
       <c r="E58" s="7" t="s">
         <v>29</v>
       </c>
@@ -8894,18 +8894,18 @@
         <v>99</v>
       </c>
       <c r="W58" s="14">
-        <f>(V58/(V58+X58))*100</f>
+        <f t="shared" si="3"/>
         <v>47.368421052631575</v>
       </c>
       <c r="X58" s="7">
         <v>110</v>
       </c>
       <c r="Y58" s="14">
-        <f>(X58/(V58+X58))*100</f>
+        <f t="shared" si="4"/>
         <v>52.631578947368418</v>
       </c>
-      <c r="Z58" s="157">
-        <f>W58-Y58</f>
+      <c r="Z58" s="151">
+        <f t="shared" si="5"/>
         <v>-5.2631578947368425</v>
       </c>
       <c r="AA58" s="1">
@@ -8970,18 +8970,18 @@
         <v>75</v>
       </c>
       <c r="W59" s="14">
-        <f>(V59/(V59+X59))*100</f>
+        <f t="shared" si="3"/>
         <v>47.468354430379748</v>
       </c>
       <c r="X59" s="7">
         <v>83</v>
       </c>
       <c r="Y59" s="14">
-        <f>(X59/(V59+X59))*100</f>
+        <f t="shared" si="4"/>
         <v>52.531645569620252</v>
       </c>
-      <c r="Z59" s="157">
-        <f>W59-Y59</f>
+      <c r="Z59" s="151">
+        <f t="shared" si="5"/>
         <v>-5.0632911392405049</v>
       </c>
       <c r="AA59" s="1">
@@ -9046,18 +9046,18 @@
         <v>203</v>
       </c>
       <c r="W60" s="14">
-        <f>(V60/(V60+X60))*100</f>
+        <f t="shared" si="3"/>
         <v>47.652582159624416</v>
       </c>
       <c r="X60" s="7">
         <v>223</v>
       </c>
       <c r="Y60" s="14">
-        <f>(X60/(V60+X60))*100</f>
+        <f t="shared" si="4"/>
         <v>52.347417840375584</v>
       </c>
-      <c r="Z60" s="157">
-        <f>W60-Y60</f>
+      <c r="Z60" s="151">
+        <f t="shared" si="5"/>
         <v>-4.6948356807511686</v>
       </c>
       <c r="AA60" s="1">
@@ -9122,18 +9122,18 @@
         <v>291</v>
       </c>
       <c r="W61" s="14">
-        <f>(V61/(V61+X61))*100</f>
+        <f t="shared" si="3"/>
         <v>47.783251231527096</v>
       </c>
       <c r="X61" s="7">
         <v>318</v>
       </c>
       <c r="Y61" s="14">
-        <f>(X61/(V61+X61))*100</f>
+        <f t="shared" si="4"/>
         <v>52.216748768472911</v>
       </c>
-      <c r="Z61" s="157">
-        <f>W61-Y61</f>
+      <c r="Z61" s="151">
+        <f t="shared" si="5"/>
         <v>-4.4334975369458149</v>
       </c>
       <c r="AA61" s="1">
@@ -9198,18 +9198,18 @@
         <v>266</v>
       </c>
       <c r="W62" s="14">
-        <f>(V62/(V62+X62))*100</f>
+        <f t="shared" si="3"/>
         <v>48.188405797101446</v>
       </c>
       <c r="X62" s="7">
         <v>286</v>
       </c>
       <c r="Y62" s="14">
-        <f>(X62/(V62+X62))*100</f>
+        <f t="shared" si="4"/>
         <v>51.811594202898547</v>
       </c>
-      <c r="Z62" s="157">
-        <f>W62-Y62</f>
+      <c r="Z62" s="151">
+        <f t="shared" si="5"/>
         <v>-3.6231884057971016</v>
       </c>
       <c r="AA62" s="1">
@@ -9274,18 +9274,18 @@
         <v>135</v>
       </c>
       <c r="W63" s="14">
-        <f>(V63/(V63+X63))*100</f>
+        <f t="shared" si="3"/>
         <v>48.387096774193552</v>
       </c>
       <c r="X63" s="7">
         <v>144</v>
       </c>
       <c r="Y63" s="14">
-        <f>(X63/(V63+X63))*100</f>
+        <f t="shared" si="4"/>
         <v>51.612903225806448</v>
       </c>
-      <c r="Z63" s="157">
-        <f>W63-Y63</f>
+      <c r="Z63" s="151">
+        <f t="shared" si="5"/>
         <v>-3.2258064516128968</v>
       </c>
       <c r="AA63" s="1">
@@ -9350,18 +9350,18 @@
         <v>85</v>
       </c>
       <c r="W64" s="14">
-        <f>(V64/(V64+X64))*100</f>
+        <f t="shared" si="3"/>
         <v>48.571428571428569</v>
       </c>
       <c r="X64" s="7">
         <v>90</v>
       </c>
       <c r="Y64" s="14">
-        <f>(X64/(V64+X64))*100</f>
+        <f t="shared" si="4"/>
         <v>51.428571428571423</v>
       </c>
-      <c r="Z64" s="157">
-        <f>W64-Y64</f>
+      <c r="Z64" s="151">
+        <f t="shared" si="5"/>
         <v>-2.8571428571428541</v>
       </c>
       <c r="AA64" s="1">
@@ -9426,18 +9426,18 @@
         <v>193</v>
       </c>
       <c r="W65" s="14">
-        <f>(V65/(V65+X65))*100</f>
+        <f t="shared" si="3"/>
         <v>48.614609571788414</v>
       </c>
       <c r="X65" s="7">
         <v>204</v>
       </c>
       <c r="Y65" s="14">
-        <f>(X65/(V65+X65))*100</f>
+        <f t="shared" si="4"/>
         <v>51.385390428211586</v>
       </c>
-      <c r="Z65" s="157">
-        <f>W65-Y65</f>
+      <c r="Z65" s="151">
+        <f t="shared" si="5"/>
         <v>-2.7707808564231726</v>
       </c>
       <c r="AA65" s="1">
@@ -9502,18 +9502,18 @@
         <v>75</v>
       </c>
       <c r="W66" s="14">
-        <f>(V66/(V66+X66))*100</f>
+        <f t="shared" si="3"/>
         <v>48.701298701298704</v>
       </c>
       <c r="X66" s="7">
         <v>79</v>
       </c>
       <c r="Y66" s="14">
-        <f>(X66/(V66+X66))*100</f>
+        <f t="shared" si="4"/>
         <v>51.298701298701296</v>
       </c>
-      <c r="Z66" s="157">
-        <f>W66-Y66</f>
+      <c r="Z66" s="151">
+        <f t="shared" si="5"/>
         <v>-2.5974025974025921</v>
       </c>
       <c r="AA66" s="1">
@@ -9578,18 +9578,18 @@
         <v>149</v>
       </c>
       <c r="W67" s="14">
-        <f>(V67/(V67+X67))*100</f>
+        <f t="shared" ref="W67:W98" si="6">(V67/(V67+X67))*100</f>
         <v>48.852459016393439</v>
       </c>
       <c r="X67" s="7">
         <v>156</v>
       </c>
       <c r="Y67" s="14">
-        <f>(X67/(V67+X67))*100</f>
+        <f t="shared" ref="Y67:Y98" si="7">(X67/(V67+X67))*100</f>
         <v>51.147540983606554</v>
       </c>
-      <c r="Z67" s="157">
-        <f>W67-Y67</f>
+      <c r="Z67" s="151">
+        <f t="shared" ref="Z67:Z98" si="8">W67-Y67</f>
         <v>-2.2950819672131146</v>
       </c>
       <c r="AA67" s="1">
@@ -9654,18 +9654,18 @@
         <v>128</v>
       </c>
       <c r="W68" s="14">
-        <f>(V68/(V68+X68))*100</f>
+        <f t="shared" si="6"/>
         <v>48.854961832061065</v>
       </c>
       <c r="X68" s="7">
         <v>134</v>
       </c>
       <c r="Y68" s="14">
-        <f>(X68/(V68+X68))*100</f>
+        <f t="shared" si="7"/>
         <v>51.145038167938928</v>
       </c>
-      <c r="Z68" s="157">
-        <f>W68-Y68</f>
+      <c r="Z68" s="151">
+        <f t="shared" si="8"/>
         <v>-2.2900763358778633</v>
       </c>
       <c r="AA68" s="1">
@@ -9730,18 +9730,18 @@
         <v>214</v>
       </c>
       <c r="W69" s="14">
-        <f>(V69/(V69+X69))*100</f>
+        <f t="shared" si="6"/>
         <v>48.970251716247134</v>
       </c>
       <c r="X69" s="7">
         <v>223</v>
       </c>
       <c r="Y69" s="14">
-        <f>(X69/(V69+X69))*100</f>
+        <f t="shared" si="7"/>
         <v>51.029748283752866</v>
       </c>
-      <c r="Z69" s="157">
-        <f>W69-Y69</f>
+      <c r="Z69" s="151">
+        <f t="shared" si="8"/>
         <v>-2.0594965675057324</v>
       </c>
       <c r="AA69" s="1">
@@ -9806,18 +9806,18 @@
         <v>102</v>
       </c>
       <c r="W70" s="14">
-        <f>(V70/(V70+X70))*100</f>
+        <f t="shared" si="6"/>
         <v>49.038461538461533</v>
       </c>
       <c r="X70" s="7">
         <v>106</v>
       </c>
       <c r="Y70" s="14">
-        <f>(X70/(V70+X70))*100</f>
+        <f t="shared" si="7"/>
         <v>50.96153846153846</v>
       </c>
-      <c r="Z70" s="157">
-        <f>W70-Y70</f>
+      <c r="Z70" s="151">
+        <f t="shared" si="8"/>
         <v>-1.9230769230769269</v>
       </c>
       <c r="AA70" s="1">
@@ -9882,18 +9882,18 @@
         <v>111</v>
       </c>
       <c r="W71" s="14">
-        <f>(V71/(V71+X71))*100</f>
+        <f t="shared" si="6"/>
         <v>49.115044247787608</v>
       </c>
       <c r="X71" s="7">
         <v>115</v>
       </c>
       <c r="Y71" s="14">
-        <f>(X71/(V71+X71))*100</f>
+        <f t="shared" si="7"/>
         <v>50.884955752212392</v>
       </c>
-      <c r="Z71" s="157">
-        <f>W71-Y71</f>
+      <c r="Z71" s="151">
+        <f t="shared" si="8"/>
         <v>-1.7699115044247833</v>
       </c>
       <c r="AA71" s="1">
@@ -9958,18 +9958,18 @@
         <v>227</v>
       </c>
       <c r="W72" s="14">
-        <f>(V72/(V72+X72))*100</f>
+        <f t="shared" si="6"/>
         <v>49.134199134199136</v>
       </c>
       <c r="X72" s="7">
         <v>235</v>
       </c>
       <c r="Y72" s="14">
-        <f>(X72/(V72+X72))*100</f>
+        <f t="shared" si="7"/>
         <v>50.865800865800871</v>
       </c>
-      <c r="Z72" s="157">
-        <f>W72-Y72</f>
+      <c r="Z72" s="151">
+        <f t="shared" si="8"/>
         <v>-1.7316017316017351</v>
       </c>
       <c r="AA72" s="1">
@@ -10034,18 +10034,18 @@
         <v>149</v>
       </c>
       <c r="W73" s="14">
-        <f>(V73/(V73+X73))*100</f>
+        <f t="shared" si="6"/>
         <v>49.337748344370866</v>
       </c>
       <c r="X73" s="7">
         <v>153</v>
       </c>
       <c r="Y73" s="14">
-        <f>(X73/(V73+X73))*100</f>
+        <f t="shared" si="7"/>
         <v>50.662251655629142</v>
       </c>
-      <c r="Z73" s="157">
-        <f>W73-Y73</f>
+      <c r="Z73" s="151">
+        <f t="shared" si="8"/>
         <v>-1.324503311258276</v>
       </c>
       <c r="AA73" s="1">
@@ -10054,7 +10054,7 @@
       <c r="AB73" s="21"/>
       <c r="AC73" s="21"/>
     </row>
-    <row r="74" spans="5:29" ht="43.5">
+    <row r="74" spans="5:29" ht="29">
       <c r="E74" s="7" t="s">
         <v>104</v>
       </c>
@@ -10110,18 +10110,18 @@
         <v>200</v>
       </c>
       <c r="W74" s="14">
-        <f>(V74/(V74+X74))*100</f>
+        <f t="shared" si="6"/>
         <v>49.382716049382715</v>
       </c>
       <c r="X74" s="7">
         <v>205</v>
       </c>
       <c r="Y74" s="14">
-        <f>(X74/(V74+X74))*100</f>
+        <f t="shared" si="7"/>
         <v>50.617283950617285</v>
       </c>
-      <c r="Z74" s="157">
-        <f>W74-Y74</f>
+      <c r="Z74" s="151">
+        <f t="shared" si="8"/>
         <v>-1.2345679012345698</v>
       </c>
       <c r="AA74" s="1">
@@ -10186,18 +10186,18 @@
         <v>125</v>
       </c>
       <c r="W75" s="14">
-        <f>(V75/(V75+X75))*100</f>
+        <f t="shared" si="6"/>
         <v>49.40711462450593</v>
       </c>
       <c r="X75" s="7">
         <v>128</v>
       </c>
       <c r="Y75" s="14">
-        <f>(X75/(V75+X75))*100</f>
+        <f t="shared" si="7"/>
         <v>50.59288537549407</v>
       </c>
-      <c r="Z75" s="157">
-        <f>W75-Y75</f>
+      <c r="Z75" s="151">
+        <f t="shared" si="8"/>
         <v>-1.1857707509881408</v>
       </c>
       <c r="AA75" s="1">
@@ -10262,18 +10262,18 @@
         <v>296</v>
       </c>
       <c r="W76" s="14">
-        <f>(V76/(V76+X76))*100</f>
+        <f t="shared" si="6"/>
         <v>49.41569282136895</v>
       </c>
       <c r="X76" s="7">
         <v>303</v>
       </c>
       <c r="Y76" s="14">
-        <f>(X76/(V76+X76))*100</f>
+        <f t="shared" si="7"/>
         <v>50.58430717863105</v>
       </c>
-      <c r="Z76" s="157">
-        <f>W76-Y76</f>
+      <c r="Z76" s="151">
+        <f t="shared" si="8"/>
         <v>-1.1686143572621006</v>
       </c>
       <c r="AA76" s="1">
@@ -10338,18 +10338,18 @@
         <v>168</v>
       </c>
       <c r="W77" s="14">
-        <f>(V77/(V77+X77))*100</f>
+        <f t="shared" si="6"/>
         <v>49.557522123893804</v>
       </c>
       <c r="X77" s="7">
         <v>171</v>
       </c>
       <c r="Y77" s="14">
-        <f>(X77/(V77+X77))*100</f>
+        <f t="shared" si="7"/>
         <v>50.442477876106196</v>
       </c>
-      <c r="Z77" s="157">
-        <f>W77-Y77</f>
+      <c r="Z77" s="151">
+        <f t="shared" si="8"/>
         <v>-0.88495575221239164</v>
       </c>
       <c r="AA77" s="1">
@@ -10414,18 +10414,18 @@
         <v>80</v>
       </c>
       <c r="W78" s="14">
-        <f>(V78/(V78+X78))*100</f>
+        <f t="shared" si="6"/>
         <v>49.689440993788821</v>
       </c>
       <c r="X78" s="7">
         <v>81</v>
       </c>
       <c r="Y78" s="14">
-        <f>(X78/(V78+X78))*100</f>
+        <f t="shared" si="7"/>
         <v>50.310559006211179</v>
       </c>
-      <c r="Z78" s="157">
-        <f>W78-Y78</f>
+      <c r="Z78" s="151">
+        <f t="shared" si="8"/>
         <v>-0.62111801242235742</v>
       </c>
       <c r="AA78" s="1">
@@ -10490,18 +10490,18 @@
         <v>338</v>
       </c>
       <c r="W79" s="14">
-        <f>(V79/(V79+X79))*100</f>
+        <f t="shared" si="6"/>
         <v>49.926144756277694</v>
       </c>
       <c r="X79" s="7">
         <v>339</v>
       </c>
       <c r="Y79" s="14">
-        <f>(X79/(V79+X79))*100</f>
+        <f t="shared" si="7"/>
         <v>50.073855243722306</v>
       </c>
-      <c r="Z79" s="157">
-        <f>W79-Y79</f>
+      <c r="Z79" s="151">
+        <f t="shared" si="8"/>
         <v>-0.14771048744461268</v>
       </c>
       <c r="AA79" s="1">
@@ -10566,18 +10566,18 @@
         <v>35</v>
       </c>
       <c r="W80" s="14">
-        <f>(V80/(V80+X80))*100</f>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="X80" s="7">
         <v>35</v>
       </c>
       <c r="Y80" s="14">
-        <f>(X80/(V80+X80))*100</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="Z80" s="14">
-        <f>W80-Y80</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA80" s="1">
@@ -10642,21 +10642,21 @@
         <v>328</v>
       </c>
       <c r="W81" s="14">
-        <f>(V81/(V81+X81))*100</f>
+        <f t="shared" si="6"/>
         <v>50.076335877862597</v>
       </c>
       <c r="X81" s="7">
         <v>327</v>
       </c>
       <c r="Y81" s="14">
-        <f>(X81/(V81+X81))*100</f>
+        <f t="shared" si="7"/>
         <v>49.92366412213741</v>
       </c>
-      <c r="Z81" s="158">
-        <f>W81-Y81</f>
+      <c r="Z81" s="152">
+        <f t="shared" si="8"/>
         <v>0.1526717557251871</v>
       </c>
-      <c r="AA81" s="159">
+      <c r="AA81" s="153">
         <v>5</v>
       </c>
     </row>
@@ -10716,21 +10716,21 @@
         <v>249</v>
       </c>
       <c r="W82" s="14">
-        <f>(V82/(V82+X82))*100</f>
+        <f t="shared" si="6"/>
         <v>50.201612903225815</v>
       </c>
       <c r="X82" s="7">
         <v>247</v>
       </c>
       <c r="Y82" s="14">
-        <f>(X82/(V82+X82))*100</f>
+        <f t="shared" si="7"/>
         <v>49.798387096774192</v>
       </c>
-      <c r="Z82" s="158">
-        <f>W82-Y82</f>
+      <c r="Z82" s="152">
+        <f t="shared" si="8"/>
         <v>0.40322580645162276</v>
       </c>
-      <c r="AA82" s="159">
+      <c r="AA82" s="153">
         <v>5</v>
       </c>
     </row>
@@ -10790,21 +10790,21 @@
         <v>91</v>
       </c>
       <c r="W83" s="14">
-        <f>(V83/(V83+X83))*100</f>
+        <f t="shared" si="6"/>
         <v>50.276243093922659</v>
       </c>
       <c r="X83" s="7">
         <v>90</v>
       </c>
       <c r="Y83" s="14">
-        <f>(X83/(V83+X83))*100</f>
+        <f t="shared" si="7"/>
         <v>49.723756906077348</v>
       </c>
-      <c r="Z83" s="158">
-        <f>W83-Y83</f>
+      <c r="Z83" s="152">
+        <f t="shared" si="8"/>
         <v>0.55248618784531089</v>
       </c>
-      <c r="AA83" s="159">
+      <c r="AA83" s="153">
         <v>5</v>
       </c>
     </row>
@@ -10864,21 +10864,21 @@
         <v>146</v>
       </c>
       <c r="W84" s="14">
-        <f>(V84/(V84+X84))*100</f>
+        <f t="shared" si="6"/>
         <v>50.344827586206897</v>
       </c>
       <c r="X84" s="7">
         <v>144</v>
       </c>
       <c r="Y84" s="14">
-        <f>(X84/(V84+X84))*100</f>
+        <f t="shared" si="7"/>
         <v>49.655172413793103</v>
       </c>
-      <c r="Z84" s="158">
-        <f>W84-Y84</f>
+      <c r="Z84" s="152">
+        <f t="shared" si="8"/>
         <v>0.68965517241379359</v>
       </c>
-      <c r="AA84" s="159">
+      <c r="AA84" s="153">
         <v>5</v>
       </c>
     </row>
@@ -10938,21 +10938,21 @@
         <v>76</v>
       </c>
       <c r="W85" s="14">
-        <f>(V85/(V85+X85))*100</f>
+        <f t="shared" si="6"/>
         <v>50.666666666666671</v>
       </c>
       <c r="X85" s="7">
         <v>74</v>
       </c>
       <c r="Y85" s="14">
-        <f>(X85/(V85+X85))*100</f>
+        <f t="shared" si="7"/>
         <v>49.333333333333336</v>
       </c>
-      <c r="Z85" s="158">
-        <f>W85-Y85</f>
+      <c r="Z85" s="152">
+        <f t="shared" si="8"/>
         <v>1.3333333333333357</v>
       </c>
-      <c r="AA85" s="159">
+      <c r="AA85" s="153">
         <v>5</v>
       </c>
     </row>
@@ -11012,21 +11012,21 @@
         <v>334</v>
       </c>
       <c r="W86" s="14">
-        <f>(V86/(V86+X86))*100</f>
+        <f t="shared" si="6"/>
         <v>50.837138508371382</v>
       </c>
       <c r="X86" s="7">
         <v>323</v>
       </c>
       <c r="Y86" s="14">
-        <f>(X86/(V86+X86))*100</f>
+        <f t="shared" si="7"/>
         <v>49.162861491628611</v>
       </c>
-      <c r="Z86" s="158">
-        <f>W86-Y86</f>
+      <c r="Z86" s="152">
+        <f t="shared" si="8"/>
         <v>1.6742770167427707</v>
       </c>
-      <c r="AA86" s="159">
+      <c r="AA86" s="153">
         <v>5</v>
       </c>
     </row>
@@ -11086,21 +11086,21 @@
         <v>256</v>
       </c>
       <c r="W87" s="14">
-        <f>(V87/(V87+X87))*100</f>
+        <f t="shared" si="6"/>
         <v>51.097804391217558</v>
       </c>
       <c r="X87" s="7">
         <v>245</v>
       </c>
       <c r="Y87" s="14">
-        <f>(X87/(V87+X87))*100</f>
+        <f t="shared" si="7"/>
         <v>48.902195608782435</v>
       </c>
-      <c r="Z87" s="158">
-        <f>W87-Y87</f>
+      <c r="Z87" s="152">
+        <f t="shared" si="8"/>
         <v>2.1956087824351229</v>
       </c>
-      <c r="AA87" s="159">
+      <c r="AA87" s="153">
         <v>5</v>
       </c>
     </row>
@@ -11160,21 +11160,21 @@
         <v>490</v>
       </c>
       <c r="W88" s="14">
-        <f>(V88/(V88+X88))*100</f>
+        <f t="shared" si="6"/>
         <v>51.416579223504719</v>
       </c>
       <c r="X88" s="7">
         <v>463</v>
       </c>
       <c r="Y88" s="14">
-        <f>(X88/(V88+X88))*100</f>
+        <f t="shared" si="7"/>
         <v>48.583420776495281</v>
       </c>
-      <c r="Z88" s="158">
-        <f>W88-Y88</f>
+      <c r="Z88" s="152">
+        <f t="shared" si="8"/>
         <v>2.8331584470094384</v>
       </c>
-      <c r="AA88" s="159">
+      <c r="AA88" s="153">
         <v>5</v>
       </c>
       <c r="AB88" s="21"/>
@@ -11236,21 +11236,21 @@
         <v>90</v>
       </c>
       <c r="W89" s="14">
-        <f>(V89/(V89+X89))*100</f>
+        <f t="shared" si="6"/>
         <v>51.428571428571423</v>
       </c>
       <c r="X89" s="7">
         <v>85</v>
       </c>
       <c r="Y89" s="14">
-        <f>(X89/(V89+X89))*100</f>
+        <f t="shared" si="7"/>
         <v>48.571428571428569</v>
       </c>
-      <c r="Z89" s="158">
-        <f>W89-Y89</f>
+      <c r="Z89" s="152">
+        <f t="shared" si="8"/>
         <v>2.8571428571428541</v>
       </c>
-      <c r="AA89" s="159">
+      <c r="AA89" s="153">
         <v>5</v>
       </c>
       <c r="AB89" s="21"/>
@@ -11312,21 +11312,21 @@
         <v>159</v>
       </c>
       <c r="W90" s="14">
-        <f>(V90/(V90+X90))*100</f>
+        <f t="shared" si="6"/>
         <v>51.456310679611647</v>
       </c>
       <c r="X90" s="7">
         <v>150</v>
       </c>
       <c r="Y90" s="14">
-        <f>(X90/(V90+X90))*100</f>
+        <f t="shared" si="7"/>
         <v>48.543689320388353</v>
       </c>
-      <c r="Z90" s="158">
-        <f>W90-Y90</f>
+      <c r="Z90" s="152">
+        <f t="shared" si="8"/>
         <v>2.9126213592232943</v>
       </c>
-      <c r="AA90" s="159">
+      <c r="AA90" s="153">
         <v>5</v>
       </c>
       <c r="AB90" s="21"/>
@@ -11388,27 +11388,27 @@
         <v>135</v>
       </c>
       <c r="W91" s="14">
-        <f>(V91/(V91+X91))*100</f>
+        <f t="shared" si="6"/>
         <v>51.526717557251914</v>
       </c>
       <c r="X91" s="7">
         <v>127</v>
       </c>
       <c r="Y91" s="14">
-        <f>(X91/(V91+X91))*100</f>
+        <f t="shared" si="7"/>
         <v>48.473282442748086</v>
       </c>
-      <c r="Z91" s="158">
-        <f>W91-Y91</f>
+      <c r="Z91" s="152">
+        <f t="shared" si="8"/>
         <v>3.0534351145038272</v>
       </c>
-      <c r="AA91" s="159">
+      <c r="AA91" s="153">
         <v>5</v>
       </c>
       <c r="AB91" s="21"/>
       <c r="AC91" s="21"/>
     </row>
-    <row r="92" spans="5:29" ht="43.5">
+    <row r="92" spans="5:29" ht="29">
       <c r="E92" s="7" t="s">
         <v>86</v>
       </c>
@@ -11464,21 +11464,21 @@
         <v>222</v>
       </c>
       <c r="W92" s="14">
-        <f>(V92/(V92+X92))*100</f>
+        <f t="shared" si="6"/>
         <v>51.748251748251747</v>
       </c>
       <c r="X92" s="7">
         <v>207</v>
       </c>
       <c r="Y92" s="14">
-        <f>(X92/(V92+X92))*100</f>
+        <f t="shared" si="7"/>
         <v>48.251748251748253</v>
       </c>
-      <c r="Z92" s="158">
-        <f>W92-Y92</f>
+      <c r="Z92" s="152">
+        <f t="shared" si="8"/>
         <v>3.4965034965034931</v>
       </c>
-      <c r="AA92" s="159">
+      <c r="AA92" s="153">
         <v>5</v>
       </c>
       <c r="AB92" s="21"/>
@@ -11540,21 +11540,21 @@
         <v>211</v>
       </c>
       <c r="W93" s="14">
-        <f>(V93/(V93+X93))*100</f>
+        <f t="shared" si="6"/>
         <v>52.227722772277232</v>
       </c>
       <c r="X93" s="7">
         <v>193</v>
       </c>
       <c r="Y93" s="14">
-        <f>(X93/(V93+X93))*100</f>
+        <f t="shared" si="7"/>
         <v>47.772277227722768</v>
       </c>
-      <c r="Z93" s="158">
-        <f>W93-Y93</f>
+      <c r="Z93" s="152">
+        <f t="shared" si="8"/>
         <v>4.4554455445544647</v>
       </c>
-      <c r="AA93" s="159">
+      <c r="AA93" s="153">
         <v>5</v>
       </c>
       <c r="AB93" s="21"/>
@@ -11616,21 +11616,21 @@
         <v>334</v>
       </c>
       <c r="W94" s="14">
-        <f>(V94/(V94+X94))*100</f>
+        <f t="shared" si="6"/>
         <v>52.515723270440247</v>
       </c>
       <c r="X94" s="7">
         <v>302</v>
       </c>
       <c r="Y94" s="14">
-        <f>(X94/(V94+X94))*100</f>
+        <f t="shared" si="7"/>
         <v>47.484276729559753</v>
       </c>
-      <c r="Z94" s="158">
-        <f>W94-Y94</f>
+      <c r="Z94" s="152">
+        <f t="shared" si="8"/>
         <v>5.0314465408804949</v>
       </c>
-      <c r="AA94" s="159">
+      <c r="AA94" s="153">
         <v>5</v>
       </c>
       <c r="AB94" s="21"/>
@@ -11692,21 +11692,21 @@
         <v>10</v>
       </c>
       <c r="W95" s="14">
-        <f>(V95/(V95+X95))*100</f>
+        <f t="shared" si="6"/>
         <v>52.631578947368418</v>
       </c>
       <c r="X95" s="7">
         <v>9</v>
       </c>
       <c r="Y95" s="14">
-        <f>(X95/(V95+X95))*100</f>
+        <f t="shared" si="7"/>
         <v>47.368421052631575</v>
       </c>
-      <c r="Z95" s="158">
-        <f>W95-Y95</f>
+      <c r="Z95" s="152">
+        <f t="shared" si="8"/>
         <v>5.2631578947368425</v>
       </c>
-      <c r="AA95" s="159">
+      <c r="AA95" s="153">
         <v>5</v>
       </c>
       <c r="AB95" s="21"/>
@@ -11768,21 +11768,21 @@
         <v>137</v>
       </c>
       <c r="W96" s="14">
-        <f>(V96/(V96+X96))*100</f>
+        <f t="shared" si="6"/>
         <v>52.692307692307693</v>
       </c>
       <c r="X96" s="7">
         <v>123</v>
       </c>
       <c r="Y96" s="14">
-        <f>(X96/(V96+X96))*100</f>
+        <f t="shared" si="7"/>
         <v>47.307692307692307</v>
       </c>
-      <c r="Z96" s="158">
-        <f>W96-Y96</f>
+      <c r="Z96" s="152">
+        <f t="shared" si="8"/>
         <v>5.3846153846153868</v>
       </c>
-      <c r="AA96" s="159">
+      <c r="AA96" s="153">
         <v>5</v>
       </c>
       <c r="AB96" s="21"/>
@@ -11844,21 +11844,21 @@
         <v>77</v>
       </c>
       <c r="W97" s="14">
-        <f>(V97/(V97+X97))*100</f>
+        <f t="shared" si="6"/>
         <v>52.739726027397261</v>
       </c>
       <c r="X97" s="7">
         <v>69</v>
       </c>
       <c r="Y97" s="14">
-        <f>(X97/(V97+X97))*100</f>
+        <f t="shared" si="7"/>
         <v>47.260273972602739</v>
       </c>
-      <c r="Z97" s="158">
-        <f>W97-Y97</f>
+      <c r="Z97" s="152">
+        <f t="shared" si="8"/>
         <v>5.4794520547945211</v>
       </c>
-      <c r="AA97" s="160">
+      <c r="AA97" s="154">
         <v>5</v>
       </c>
       <c r="AB97" s="21"/>
@@ -11920,21 +11920,21 @@
         <v>272</v>
       </c>
       <c r="W98" s="14">
-        <f>(V98/(V98+X98))*100</f>
+        <f t="shared" si="6"/>
         <v>52.918287937743195</v>
       </c>
       <c r="X98" s="7">
         <v>242</v>
       </c>
       <c r="Y98" s="14">
-        <f>(X98/(V98+X98))*100</f>
+        <f t="shared" si="7"/>
         <v>47.081712062256805</v>
       </c>
-      <c r="Z98" s="158">
-        <f>W98-Y98</f>
+      <c r="Z98" s="152">
+        <f t="shared" si="8"/>
         <v>5.836575875486389</v>
       </c>
-      <c r="AA98" s="160">
+      <c r="AA98" s="154">
         <v>5</v>
       </c>
       <c r="AB98" s="21"/>
@@ -11996,21 +11996,21 @@
         <v>249</v>
       </c>
       <c r="W99" s="14">
-        <f>(V99/(V99+X99))*100</f>
+        <f t="shared" ref="W99:W130" si="9">(V99/(V99+X99))*100</f>
         <v>53.205128205128204</v>
       </c>
       <c r="X99" s="7">
         <v>219</v>
       </c>
       <c r="Y99" s="14">
-        <f>(X99/(V99+X99))*100</f>
+        <f t="shared" ref="Y99:Y130" si="10">(X99/(V99+X99))*100</f>
         <v>46.794871794871796</v>
       </c>
-      <c r="Z99" s="158">
-        <f>W99-Y99</f>
+      <c r="Z99" s="152">
+        <f t="shared" ref="Z99:Z130" si="11">W99-Y99</f>
         <v>6.4102564102564088</v>
       </c>
-      <c r="AA99" s="160">
+      <c r="AA99" s="154">
         <v>5</v>
       </c>
       <c r="AB99" s="21"/>
@@ -12072,21 +12072,21 @@
         <v>166</v>
       </c>
       <c r="W100" s="14">
-        <f>(V100/(V100+X100))*100</f>
+        <f t="shared" si="9"/>
         <v>53.376205787781352</v>
       </c>
       <c r="X100" s="7">
         <v>145</v>
       </c>
       <c r="Y100" s="14">
-        <f>(X100/(V100+X100))*100</f>
+        <f t="shared" si="10"/>
         <v>46.623794212218648</v>
       </c>
-      <c r="Z100" s="158">
-        <f>W100-Y100</f>
+      <c r="Z100" s="152">
+        <f t="shared" si="11"/>
         <v>6.7524115755627037</v>
       </c>
-      <c r="AA100" s="160">
+      <c r="AA100" s="154">
         <v>5</v>
       </c>
       <c r="AB100" s="21"/>
@@ -12148,21 +12148,21 @@
         <v>202</v>
       </c>
       <c r="W101" s="14">
-        <f>(V101/(V101+X101))*100</f>
+        <f t="shared" si="9"/>
         <v>53.723404255319153</v>
       </c>
       <c r="X101" s="7">
         <v>174</v>
       </c>
       <c r="Y101" s="14">
-        <f>(X101/(V101+X101))*100</f>
+        <f t="shared" si="10"/>
         <v>46.276595744680847</v>
       </c>
-      <c r="Z101" s="158">
-        <f>W101-Y101</f>
+      <c r="Z101" s="152">
+        <f t="shared" si="11"/>
         <v>7.4468085106383057</v>
       </c>
-      <c r="AA101" s="160">
+      <c r="AA101" s="154">
         <v>5</v>
       </c>
       <c r="AB101" s="21"/>
@@ -12224,21 +12224,21 @@
         <v>359</v>
       </c>
       <c r="W102" s="14">
-        <f>(V102/(V102+X102))*100</f>
+        <f t="shared" si="9"/>
         <v>53.823088455772115</v>
       </c>
       <c r="X102" s="7">
         <v>308</v>
       </c>
       <c r="Y102" s="14">
-        <f>(X102/(V102+X102))*100</f>
+        <f t="shared" si="10"/>
         <v>46.176911544227892</v>
       </c>
-      <c r="Z102" s="158">
-        <f>W102-Y102</f>
+      <c r="Z102" s="152">
+        <f t="shared" si="11"/>
         <v>7.6461769115442237</v>
       </c>
-      <c r="AA102" s="160">
+      <c r="AA102" s="154">
         <v>5</v>
       </c>
       <c r="AB102" s="21"/>
@@ -12300,21 +12300,21 @@
         <v>301</v>
       </c>
       <c r="W103" s="14">
-        <f>(V103/(V103+X103))*100</f>
+        <f t="shared" si="9"/>
         <v>53.942652329749109</v>
       </c>
       <c r="X103" s="7">
         <v>257</v>
       </c>
       <c r="Y103" s="14">
-        <f>(X103/(V103+X103))*100</f>
+        <f t="shared" si="10"/>
         <v>46.057347670250898</v>
       </c>
-      <c r="Z103" s="158">
-        <f>W103-Y103</f>
+      <c r="Z103" s="152">
+        <f t="shared" si="11"/>
         <v>7.8853046594982104</v>
       </c>
-      <c r="AA103" s="160">
+      <c r="AA103" s="154">
         <v>5</v>
       </c>
       <c r="AB103" s="21"/>
@@ -12376,21 +12376,21 @@
         <v>128</v>
       </c>
       <c r="W104" s="14">
-        <f>(V104/(V104+X104))*100</f>
+        <f t="shared" si="9"/>
         <v>54.008438818565395</v>
       </c>
       <c r="X104" s="7">
         <v>109</v>
       </c>
       <c r="Y104" s="14">
-        <f>(X104/(V104+X104))*100</f>
+        <f t="shared" si="10"/>
         <v>45.991561181434598</v>
       </c>
-      <c r="Z104" s="158">
-        <f>W104-Y104</f>
+      <c r="Z104" s="152">
+        <f t="shared" si="11"/>
         <v>8.016877637130797</v>
       </c>
-      <c r="AA104" s="160">
+      <c r="AA104" s="154">
         <v>5</v>
       </c>
       <c r="AB104" s="21"/>
@@ -12452,21 +12452,21 @@
         <v>392</v>
       </c>
       <c r="W105" s="14">
-        <f>(V105/(V105+X105))*100</f>
+        <f t="shared" si="9"/>
         <v>54.068965517241374</v>
       </c>
       <c r="X105" s="7">
         <v>333</v>
       </c>
       <c r="Y105" s="14">
-        <f>(X105/(V105+X105))*100</f>
+        <f t="shared" si="10"/>
         <v>45.931034482758619</v>
       </c>
-      <c r="Z105" s="158">
-        <f>W105-Y105</f>
+      <c r="Z105" s="152">
+        <f t="shared" si="11"/>
         <v>8.1379310344827545</v>
       </c>
-      <c r="AA105" s="160">
+      <c r="AA105" s="154">
         <v>6</v>
       </c>
       <c r="AB105" s="21"/>
@@ -12528,21 +12528,21 @@
         <v>301</v>
       </c>
       <c r="W106" s="14">
-        <f>(V106/(V106+X106))*100</f>
+        <f t="shared" si="9"/>
         <v>54.136690647482013</v>
       </c>
       <c r="X106" s="7">
         <v>255</v>
       </c>
       <c r="Y106" s="14">
-        <f>(X106/(V106+X106))*100</f>
+        <f t="shared" si="10"/>
         <v>45.86330935251798</v>
       </c>
-      <c r="Z106" s="158">
-        <f>W106-Y106</f>
+      <c r="Z106" s="152">
+        <f t="shared" si="11"/>
         <v>8.2733812949640324</v>
       </c>
-      <c r="AA106" s="160">
+      <c r="AA106" s="154">
         <v>6</v>
       </c>
       <c r="AB106" s="21"/>
@@ -12604,21 +12604,21 @@
         <v>249</v>
       </c>
       <c r="W107" s="14">
-        <f>(V107/(V107+X107))*100</f>
+        <f t="shared" si="9"/>
         <v>54.72527472527473</v>
       </c>
       <c r="X107" s="7">
         <v>206</v>
       </c>
       <c r="Y107" s="14">
-        <f>(X107/(V107+X107))*100</f>
+        <f t="shared" si="10"/>
         <v>45.274725274725277</v>
       </c>
-      <c r="Z107" s="158">
-        <f>W107-Y107</f>
+      <c r="Z107" s="152">
+        <f t="shared" si="11"/>
         <v>9.4505494505494525</v>
       </c>
-      <c r="AA107" s="160">
+      <c r="AA107" s="154">
         <v>6</v>
       </c>
       <c r="AB107" s="21"/>
@@ -12680,21 +12680,21 @@
         <v>125</v>
       </c>
       <c r="W108" s="14">
-        <f>(V108/(V108+X108))*100</f>
+        <f t="shared" si="9"/>
         <v>54.824561403508774</v>
       </c>
       <c r="X108" s="7">
         <v>103</v>
       </c>
       <c r="Y108" s="14">
-        <f>(X108/(V108+X108))*100</f>
+        <f t="shared" si="10"/>
         <v>45.175438596491233</v>
       </c>
-      <c r="Z108" s="158">
-        <f>W108-Y108</f>
+      <c r="Z108" s="152">
+        <f t="shared" si="11"/>
         <v>9.649122807017541</v>
       </c>
-      <c r="AA108" s="160">
+      <c r="AA108" s="154">
         <v>6</v>
       </c>
       <c r="AB108" s="21"/>
@@ -12756,21 +12756,21 @@
         <v>207</v>
       </c>
       <c r="W109" s="14">
-        <f>(V109/(V109+X109))*100</f>
+        <f t="shared" si="9"/>
         <v>55.347593582887697</v>
       </c>
       <c r="X109" s="7">
         <v>167</v>
       </c>
       <c r="Y109" s="14">
-        <f>(X109/(V109+X109))*100</f>
+        <f t="shared" si="10"/>
         <v>44.652406417112303</v>
       </c>
-      <c r="Z109" s="158">
-        <f>W109-Y109</f>
+      <c r="Z109" s="152">
+        <f t="shared" si="11"/>
         <v>10.695187165775394</v>
       </c>
-      <c r="AA109" s="160">
+      <c r="AA109" s="154">
         <v>6</v>
       </c>
       <c r="AB109" s="21"/>
@@ -12832,21 +12832,21 @@
         <v>124</v>
       </c>
       <c r="W110" s="14">
-        <f>(V110/(V110+X110))*100</f>
+        <f t="shared" si="9"/>
         <v>55.60538116591929</v>
       </c>
       <c r="X110" s="7">
         <v>99</v>
       </c>
       <c r="Y110" s="14">
-        <f>(X110/(V110+X110))*100</f>
+        <f t="shared" si="10"/>
         <v>44.394618834080717</v>
       </c>
-      <c r="Z110" s="158">
-        <f>W110-Y110</f>
+      <c r="Z110" s="152">
+        <f t="shared" si="11"/>
         <v>11.210762331838573</v>
       </c>
-      <c r="AA110" s="160">
+      <c r="AA110" s="154">
         <v>6</v>
       </c>
       <c r="AB110" s="21"/>
@@ -12908,21 +12908,21 @@
         <v>261</v>
       </c>
       <c r="W111" s="14">
-        <f>(V111/(V111+X111))*100</f>
+        <f t="shared" si="9"/>
         <v>55.769230769230774</v>
       </c>
       <c r="X111" s="7">
         <v>207</v>
       </c>
       <c r="Y111" s="14">
-        <f>(X111/(V111+X111))*100</f>
+        <f t="shared" si="10"/>
         <v>44.230769230769226</v>
       </c>
-      <c r="Z111" s="158">
-        <f>W111-Y111</f>
+      <c r="Z111" s="152">
+        <f t="shared" si="11"/>
         <v>11.538461538461547</v>
       </c>
-      <c r="AA111" s="160">
+      <c r="AA111" s="154">
         <v>6</v>
       </c>
       <c r="AB111" s="21"/>
@@ -12984,21 +12984,21 @@
         <v>82</v>
       </c>
       <c r="W112" s="14">
-        <f>(V112/(V112+X112))*100</f>
+        <f t="shared" si="9"/>
         <v>55.782312925170061</v>
       </c>
       <c r="X112" s="7">
         <v>65</v>
       </c>
       <c r="Y112" s="14">
-        <f>(X112/(V112+X112))*100</f>
+        <f t="shared" si="10"/>
         <v>44.217687074829932</v>
       </c>
-      <c r="Z112" s="158">
-        <f>W112-Y112</f>
+      <c r="Z112" s="152">
+        <f t="shared" si="11"/>
         <v>11.564625850340128</v>
       </c>
-      <c r="AA112" s="160">
+      <c r="AA112" s="154">
         <v>6</v>
       </c>
       <c r="AB112" s="21"/>
@@ -13060,21 +13060,21 @@
         <v>463</v>
       </c>
       <c r="W113" s="14">
-        <f>(V113/(V113+X113))*100</f>
+        <f t="shared" si="9"/>
         <v>55.985489721886339</v>
       </c>
       <c r="X113" s="7">
         <v>364</v>
       </c>
       <c r="Y113" s="14">
-        <f>(X113/(V113+X113))*100</f>
+        <f t="shared" si="10"/>
         <v>44.014510278113669</v>
       </c>
-      <c r="Z113" s="158">
-        <f>W113-Y113</f>
+      <c r="Z113" s="152">
+        <f t="shared" si="11"/>
         <v>11.97097944377267</v>
       </c>
-      <c r="AA113" s="159">
+      <c r="AA113" s="153">
         <v>6</v>
       </c>
       <c r="AB113" s="21"/>
@@ -13136,21 +13136,21 @@
         <v>110</v>
       </c>
       <c r="W114" s="14">
-        <f>(V114/(V114+X114))*100</f>
+        <f t="shared" si="9"/>
         <v>56.12244897959183</v>
       </c>
       <c r="X114" s="7">
         <v>86</v>
       </c>
       <c r="Y114" s="14">
-        <f>(X114/(V114+X114))*100</f>
+        <f t="shared" si="10"/>
         <v>43.877551020408163</v>
       </c>
-      <c r="Z114" s="158">
-        <f>W114-Y114</f>
+      <c r="Z114" s="152">
+        <f t="shared" si="11"/>
         <v>12.244897959183668</v>
       </c>
-      <c r="AA114" s="159">
+      <c r="AA114" s="153">
         <v>6</v>
       </c>
       <c r="AB114" s="21"/>
@@ -13212,21 +13212,21 @@
         <v>182</v>
       </c>
       <c r="W115" s="14">
-        <f>(V115/(V115+X115))*100</f>
+        <f t="shared" si="9"/>
         <v>56.697819314641741</v>
       </c>
       <c r="X115" s="7">
         <v>139</v>
       </c>
       <c r="Y115" s="14">
-        <f>(X115/(V115+X115))*100</f>
+        <f t="shared" si="10"/>
         <v>43.302180685358252</v>
       </c>
-      <c r="Z115" s="158">
-        <f>W115-Y115</f>
+      <c r="Z115" s="152">
+        <f t="shared" si="11"/>
         <v>13.395638629283489</v>
       </c>
-      <c r="AA115" s="159">
+      <c r="AA115" s="153">
         <v>6</v>
       </c>
       <c r="AB115" s="21"/>
@@ -13288,21 +13288,21 @@
         <v>486</v>
       </c>
       <c r="W116" s="14">
-        <f>(V116/(V116+X116))*100</f>
+        <f t="shared" si="9"/>
         <v>57.04225352112676</v>
       </c>
       <c r="X116" s="7">
         <v>366</v>
       </c>
       <c r="Y116" s="14">
-        <f>(X116/(V116+X116))*100</f>
+        <f t="shared" si="10"/>
         <v>42.95774647887324</v>
       </c>
-      <c r="Z116" s="158">
-        <f>W116-Y116</f>
+      <c r="Z116" s="152">
+        <f t="shared" si="11"/>
         <v>14.08450704225352</v>
       </c>
-      <c r="AA116" s="159">
+      <c r="AA116" s="153">
         <v>6</v>
       </c>
       <c r="AB116" s="21"/>
@@ -13364,21 +13364,21 @@
         <v>211</v>
       </c>
       <c r="W117" s="14">
-        <f>(V117/(V117+X117))*100</f>
+        <f t="shared" si="9"/>
         <v>57.650273224043715</v>
       </c>
       <c r="X117" s="7">
         <v>155</v>
       </c>
       <c r="Y117" s="14">
-        <f>(X117/(V117+X117))*100</f>
+        <f t="shared" si="10"/>
         <v>42.349726775956285</v>
       </c>
-      <c r="Z117" s="158">
-        <f>W117-Y117</f>
+      <c r="Z117" s="152">
+        <f t="shared" si="11"/>
         <v>15.300546448087431</v>
       </c>
-      <c r="AA117" s="159">
+      <c r="AA117" s="153">
         <v>7</v>
       </c>
       <c r="AB117" s="21"/>
@@ -13440,21 +13440,21 @@
         <v>48</v>
       </c>
       <c r="W118" s="14">
-        <f>(V118/(V118+X118))*100</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="X118" s="7">
         <v>32</v>
       </c>
       <c r="Y118" s="14">
-        <f>(X118/(V118+X118))*100</f>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="Z118" s="158">
-        <f>W118-Y118</f>
+      <c r="Z118" s="152">
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="AA118" s="159">
+      <c r="AA118" s="153">
         <v>7</v>
       </c>
       <c r="AB118" s="21"/>
@@ -13516,21 +13516,21 @@
         <v>198</v>
       </c>
       <c r="W119" s="14">
-        <f>(V119/(V119+X119))*100</f>
+        <f t="shared" si="9"/>
         <v>60.550458715596335</v>
       </c>
       <c r="X119" s="7">
         <v>129</v>
       </c>
       <c r="Y119" s="14">
-        <f>(X119/(V119+X119))*100</f>
+        <f t="shared" si="10"/>
         <v>39.449541284403672</v>
       </c>
-      <c r="Z119" s="158">
-        <f>W119-Y119</f>
+      <c r="Z119" s="152">
+        <f t="shared" si="11"/>
         <v>21.100917431192663</v>
       </c>
-      <c r="AA119" s="159">
+      <c r="AA119" s="153">
         <v>7</v>
       </c>
       <c r="AB119" s="21"/>
@@ -13592,21 +13592,21 @@
         <v>120</v>
       </c>
       <c r="W120" s="14">
-        <f>(V120/(V120+X120))*100</f>
+        <f t="shared" si="9"/>
         <v>60.606060606060609</v>
       </c>
       <c r="X120" s="7">
         <v>78</v>
       </c>
       <c r="Y120" s="14">
-        <f>(X120/(V120+X120))*100</f>
+        <f t="shared" si="10"/>
         <v>39.393939393939391</v>
       </c>
-      <c r="Z120" s="158">
-        <f>W120-Y120</f>
+      <c r="Z120" s="152">
+        <f t="shared" si="11"/>
         <v>21.212121212121218</v>
       </c>
-      <c r="AA120" s="159">
+      <c r="AA120" s="153">
         <v>7</v>
       </c>
       <c r="AB120" s="21"/>
@@ -13668,21 +13668,21 @@
         <v>1466</v>
       </c>
       <c r="W121" s="14">
-        <f>(V121/(V121+X121))*100</f>
+        <f t="shared" si="9"/>
         <v>64.382960035133948</v>
       </c>
       <c r="X121" s="7">
         <v>811</v>
       </c>
       <c r="Y121" s="14">
-        <f>(X121/(V121+X121))*100</f>
+        <f t="shared" si="10"/>
         <v>35.617039964866052</v>
       </c>
-      <c r="Z121" s="158">
-        <f>W121-Y121</f>
+      <c r="Z121" s="152">
+        <f t="shared" si="11"/>
         <v>28.765920070267896</v>
       </c>
-      <c r="AA121" s="159">
+      <c r="AA121" s="153">
         <v>7</v>
       </c>
       <c r="AB121" s="21"/>
@@ -13744,21 +13744,21 @@
         <v>93</v>
       </c>
       <c r="W122" s="14">
-        <f>(V122/(V122+X122))*100</f>
+        <f t="shared" si="9"/>
         <v>65.034965034965026</v>
       </c>
       <c r="X122" s="7">
         <v>50</v>
       </c>
       <c r="Y122" s="14">
-        <f>(X122/(V122+X122))*100</f>
+        <f t="shared" si="10"/>
         <v>34.965034965034967</v>
       </c>
-      <c r="Z122" s="158">
-        <f>W122-Y122</f>
+      <c r="Z122" s="152">
+        <f t="shared" si="11"/>
         <v>30.069930069930059</v>
       </c>
-      <c r="AA122" s="159">
+      <c r="AA122" s="153">
         <v>7</v>
       </c>
       <c r="AB122" s="21"/>
@@ -13820,21 +13820,21 @@
         <v>253</v>
       </c>
       <c r="W123" s="14">
-        <f>(V123/(V123+X123))*100</f>
+        <f t="shared" si="9"/>
         <v>69.696969696969703</v>
       </c>
       <c r="X123" s="7">
         <v>110</v>
       </c>
       <c r="Y123" s="14">
-        <f>(X123/(V123+X123))*100</f>
+        <f t="shared" si="10"/>
         <v>30.303030303030305</v>
       </c>
-      <c r="Z123" s="158">
-        <f>W123-Y123</f>
+      <c r="Z123" s="152">
+        <f t="shared" si="11"/>
         <v>39.393939393939398</v>
       </c>
-      <c r="AA123" s="159">
+      <c r="AA123" s="153">
         <v>7</v>
       </c>
       <c r="AB123" s="21"/>
@@ -13896,21 +13896,21 @@
         <v>65</v>
       </c>
       <c r="W124" s="14">
-        <f>(V124/(V124+X124))*100</f>
+        <f t="shared" si="9"/>
         <v>72.222222222222214</v>
       </c>
       <c r="X124" s="7">
         <v>25</v>
       </c>
       <c r="Y124" s="14">
-        <f>(X124/(V124+X124))*100</f>
+        <f t="shared" si="10"/>
         <v>27.777777777777779</v>
       </c>
-      <c r="Z124" s="158">
-        <f>W124-Y124</f>
+      <c r="Z124" s="152">
+        <f t="shared" si="11"/>
         <v>44.444444444444436</v>
       </c>
-      <c r="AA124" s="159">
+      <c r="AA124" s="153">
         <v>7</v>
       </c>
       <c r="AB124" s="21"/>
@@ -13972,21 +13972,21 @@
         <v>249</v>
       </c>
       <c r="W125" s="14">
-        <f>(V125/(V125+X125))*100</f>
+        <f t="shared" si="9"/>
         <v>73.451327433628322</v>
       </c>
       <c r="X125" s="7">
         <v>90</v>
       </c>
       <c r="Y125" s="14">
-        <f>(X125/(V125+X125))*100</f>
+        <f t="shared" si="10"/>
         <v>26.548672566371685</v>
       </c>
-      <c r="Z125" s="158">
-        <f>W125-Y125</f>
+      <c r="Z125" s="152">
+        <f t="shared" si="11"/>
         <v>46.902654867256636</v>
       </c>
-      <c r="AA125" s="159">
+      <c r="AA125" s="153">
         <v>7</v>
       </c>
       <c r="AB125" s="21"/>
@@ -14048,21 +14048,21 @@
         <v>74</v>
       </c>
       <c r="W126" s="14">
-        <f>(V126/(V126+X126))*100</f>
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
       <c r="X126" s="7">
         <v>26</v>
       </c>
       <c r="Y126" s="14">
-        <f>(X126/(V126+X126))*100</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="Z126" s="158">
-        <f>W126-Y126</f>
+      <c r="Z126" s="152">
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
-      <c r="AA126" s="159">
+      <c r="AA126" s="153">
         <v>7</v>
       </c>
       <c r="AB126" s="21"/>
@@ -14124,21 +14124,21 @@
         <v>158</v>
       </c>
       <c r="W127" s="14">
-        <f>(V127/(V127+X127))*100</f>
+        <f t="shared" si="9"/>
         <v>77.450980392156865</v>
       </c>
       <c r="X127" s="7">
         <v>46</v>
       </c>
       <c r="Y127" s="14">
-        <f>(X127/(V127+X127))*100</f>
+        <f t="shared" si="10"/>
         <v>22.549019607843139</v>
       </c>
-      <c r="Z127" s="158">
-        <f>W127-Y127</f>
+      <c r="Z127" s="152">
+        <f t="shared" si="11"/>
         <v>54.901960784313729</v>
       </c>
-      <c r="AA127" s="159">
+      <c r="AA127" s="153">
         <v>7</v>
       </c>
       <c r="AB127" s="21"/>
@@ -14200,21 +14200,21 @@
         <v>11</v>
       </c>
       <c r="W128" s="14">
-        <f>(V128/(V128+X128))*100</f>
+        <f t="shared" si="9"/>
         <v>78.571428571428569</v>
       </c>
       <c r="X128" s="7">
         <v>3</v>
       </c>
       <c r="Y128" s="14">
-        <f>(X128/(V128+X128))*100</f>
+        <f t="shared" si="10"/>
         <v>21.428571428571427</v>
       </c>
-      <c r="Z128" s="158">
-        <f>W128-Y128</f>
+      <c r="Z128" s="152">
+        <f t="shared" si="11"/>
         <v>57.142857142857139</v>
       </c>
-      <c r="AA128" s="159">
+      <c r="AA128" s="153">
         <v>7</v>
       </c>
       <c r="AB128" s="21"/>
@@ -14245,41 +14245,41 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2" spans="1:28">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="155" t="s">
         <v>793</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
       <c r="G2" s="23"/>
-      <c r="H2" s="151" t="s">
+      <c r="H2" s="155" t="s">
         <v>793</v>
       </c>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
       <c r="N2" s="23"/>
-      <c r="O2" s="151" t="s">
+      <c r="O2" s="155" t="s">
         <v>793</v>
       </c>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
       <c r="U2" s="23"/>
-      <c r="V2" s="151" t="s">
+      <c r="V2" s="155" t="s">
         <v>793</v>
       </c>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
+      <c r="W2" s="155"/>
+      <c r="X2" s="155"/>
+      <c r="Y2" s="155"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="155"/>
       <c r="AB2" s="23"/>
     </row>
     <row r="3" spans="1:28" ht="24">
@@ -14906,7 +14906,7 @@
       </c>
       <c r="AB10" s="23"/>
     </row>
-    <row r="11" spans="1:28" ht="69">
+    <row r="11" spans="1:28" ht="57.5">
       <c r="A11" s="33" t="s">
         <v>786</v>
       </c>
@@ -14984,7 +14984,7 @@
       </c>
       <c r="AB11" s="23"/>
     </row>
-    <row r="12" spans="1:28" ht="46">
+    <row r="12" spans="1:28" ht="34.5">
       <c r="A12" s="33" t="s">
         <v>787</v>
       </c>
@@ -15062,7 +15062,7 @@
       </c>
       <c r="AB12" s="23"/>
     </row>
-    <row r="13" spans="1:28" ht="57.5">
+    <row r="13" spans="1:28" ht="46">
       <c r="A13" s="33" t="s">
         <v>788</v>
       </c>
@@ -15381,25 +15381,25 @@
       <c r="AB17" s="23"/>
     </row>
     <row r="19" spans="1:28">
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="155" t="s">
         <v>801</v>
       </c>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="155"/>
       <c r="P19" s="23"/>
     </row>
-    <row r="20" spans="1:28" ht="70">
+    <row r="20" spans="1:28" ht="58.5">
       <c r="B20" s="68" t="s">
         <v>797</v>
       </c>
@@ -16120,23 +16120,23 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="156" t="s">
         <v>814</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
       <c r="H2" s="69"/>
-      <c r="I2" s="152" t="s">
+      <c r="I2" s="156" t="s">
         <v>814</v>
       </c>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
       <c r="O2" s="69"/>
     </row>
     <row r="3" spans="2:15" ht="24">
@@ -16392,23 +16392,23 @@
       <c r="O10" s="69"/>
     </row>
     <row r="11" spans="2:15" ht="22.5" customHeight="1">
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="156" t="s">
         <v>815</v>
       </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
       <c r="H11" s="69"/>
-      <c r="I11" s="152" t="s">
+      <c r="I11" s="156" t="s">
         <v>815</v>
       </c>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="152"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="156"/>
       <c r="O11" s="69"/>
     </row>
     <row r="12" spans="2:15" ht="24">
@@ -16723,41 +16723,41 @@
       <c r="H21" s="69"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="156" t="s">
+      <c r="B22" s="160" t="s">
         <v>822</v>
       </c>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="152" t="s">
+      <c r="B24" s="156" t="s">
         <v>817</v>
       </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
       <c r="H24" s="69"/>
-      <c r="I24" s="152" t="s">
+      <c r="I24" s="156" t="s">
         <v>823</v>
       </c>
-      <c r="J24" s="152"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="152"/>
-      <c r="R24" s="152"/>
-      <c r="S24" s="152"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="156"/>
+      <c r="O24" s="156"/>
+      <c r="P24" s="156"/>
+      <c r="Q24" s="156"/>
+      <c r="R24" s="156"/>
+      <c r="S24" s="156"/>
       <c r="T24" s="69"/>
     </row>
-    <row r="25" spans="2:20" ht="47">
+    <row r="25" spans="2:20" ht="35.5">
       <c r="B25" s="70" t="s">
         <v>818</v>
       </c>
@@ -16778,11 +16778,11 @@
       <c r="I25" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="J25" s="153"/>
-      <c r="K25" s="154" t="s">
+      <c r="J25" s="157"/>
+      <c r="K25" s="158" t="s">
         <v>824</v>
       </c>
-      <c r="L25" s="155"/>
+      <c r="L25" s="159"/>
       <c r="M25" s="114" t="s">
         <v>825</v>
       </c>
@@ -16815,11 +16815,11 @@
       </c>
       <c r="H26" s="69"/>
       <c r="I26" s="113"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="154" t="s">
+      <c r="J26" s="157"/>
+      <c r="K26" s="158" t="s">
         <v>826</v>
       </c>
-      <c r="L26" s="155" t="s">
+      <c r="L26" s="159" t="s">
         <v>827</v>
       </c>
       <c r="M26" s="114" t="s">
@@ -17490,7 +17490,7 @@
       </c>
       <c r="T39" s="69"/>
     </row>
-    <row r="40" spans="2:20" ht="69">
+    <row r="40" spans="2:20" ht="57.5">
       <c r="B40" s="92" t="s">
         <v>786</v>
       </c>
@@ -17592,7 +17592,7 @@
       </c>
       <c r="T41" s="69"/>
     </row>
-    <row r="42" spans="2:20" ht="69">
+    <row r="42" spans="2:20" ht="57.5">
       <c r="B42" s="92" t="s">
         <v>787</v>
       </c>
@@ -17694,7 +17694,7 @@
       </c>
       <c r="T43" s="69"/>
     </row>
-    <row r="44" spans="2:20" ht="57.5">
+    <row r="44" spans="2:20" ht="46">
       <c r="B44" s="92" t="s">
         <v>788</v>
       </c>
@@ -17796,7 +17796,7 @@
       </c>
       <c r="T45" s="69"/>
     </row>
-    <row r="46" spans="2:20" ht="57.5">
+    <row r="46" spans="2:20" ht="46">
       <c r="B46" s="92" t="s">
         <v>789</v>
       </c>

--- a/archivos/2. Procesamiento de la información/Base Central.xlsx
+++ b/archivos/2. Procesamiento de la información/Base Central.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upperu-my.sharepoint.com/personal/ss_sotelog_alum_up_edu_pe/Documents/(TRABAJO) Apoyo Sandro Macassi/proyecto1/archivos/2. Procesamiento de la información/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{4E2B611A-090A-40E0-B058-226143AFC5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D65A6F6D-442D-40C5-8162-4EE21AE65E0C}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{4E2B611A-090A-40E0-B058-226143AFC5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93CDE845-222C-4BC5-A0FC-981E2769162F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{CBE6B108-D0AF-4E21-91D6-1BB5B89965A3}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="16200" windowHeight="10510" xr2:uid="{CBE6B108-D0AF-4E21-91D6-1BB5B89965A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Base General" sheetId="1" r:id="rId1"/>
@@ -4142,8 +4142,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>82177</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4158,8 +4158,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7515223"/>
-          <a:ext cx="2924175" cy="1295402"/>
+          <a:off x="0" y="7257488"/>
+          <a:ext cx="3036234" cy="1094630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4214,14 +4214,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>333374</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>194235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>333376</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>363258</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4236,8 +4236,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28575" y="8524874"/>
-          <a:ext cx="2924175" cy="952502"/>
+          <a:off x="28575" y="8464176"/>
+          <a:ext cx="3036234" cy="901141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4591,7 +4591,7 @@
   <dimension ref="A1:AN128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
@@ -11996,18 +11996,18 @@
         <v>249</v>
       </c>
       <c r="W99" s="14">
-        <f t="shared" ref="W99:W130" si="9">(V99/(V99+X99))*100</f>
+        <f t="shared" ref="W99:W128" si="9">(V99/(V99+X99))*100</f>
         <v>53.205128205128204</v>
       </c>
       <c r="X99" s="7">
         <v>219</v>
       </c>
       <c r="Y99" s="14">
-        <f t="shared" ref="Y99:Y130" si="10">(X99/(V99+X99))*100</f>
+        <f t="shared" ref="Y99:Y128" si="10">(X99/(V99+X99))*100</f>
         <v>46.794871794871796</v>
       </c>
       <c r="Z99" s="152">
-        <f t="shared" ref="Z99:Z130" si="11">W99-Y99</f>
+        <f t="shared" ref="Z99:Z128" si="11">W99-Y99</f>
         <v>6.4102564102564088</v>
       </c>
       <c r="AA99" s="154">
